--- a/Inputs/MODARI award data - GHS (GAMRIF and UKVN).xlsx
+++ b/Inputs/MODARI award data - GHS (GAMRIF and UKVN).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wellcomecloud-my.sharepoint.com/personal/e_clegg_ukcds_org_uk/Documents/My Documents/GitHub/ODA_research_and_innovation/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{E4CC7446-E93A-46D5-86D9-2234D76FE536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6A1BF6D-4F29-4017-826E-8D4062A138E8}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{E4CC7446-E93A-46D5-86D9-2234D76FE536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F070C54-00FB-4B0F-8A2C-00D5A8055DA6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry sheet" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -988,10 +987,6 @@
     <t>https://d-portal.org/ctrack.html#view=act&amp;aid=XM-DAC-301-2-109057-001</t>
   </si>
   <si>
-    <t xml:space="preserve">GB-GOV-10-GAMRIF-WP5-FIND
-</t>
-  </si>
-  <si>
     <t>Foundation for New innovative Diagnostics</t>
   </si>
   <si>
@@ -2342,6 +2337,9 @@
   </si>
   <si>
     <t>Vaccine Efficacy Evaluation for Priority Emerging Diseases (VEEPED)</t>
+  </si>
+  <si>
+    <t>GB-GOV-10-GAMRIF-WP5-FIND</t>
   </si>
 </sst>
 </file>
@@ -2845,7 +2843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X988"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -4704,19 +4704,19 @@
         <v>61</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="G33" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="22">
@@ -4732,10 +4732,10 @@
         <v>5120528</v>
       </c>
       <c r="N33" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="O33" s="27" t="s">
         <v>273</v>
-      </c>
-      <c r="O33" s="27" t="s">
-        <v>274</v>
       </c>
       <c r="P33" s="33" t="s">
         <v>178</v>
@@ -4756,19 +4756,19 @@
         <v>61</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="F34" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="22">
@@ -4784,10 +4784,10 @@
         <v>4999705</v>
       </c>
       <c r="N34" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="O34" s="27" t="s">
         <v>273</v>
-      </c>
-      <c r="O34" s="27" t="s">
-        <v>274</v>
       </c>
       <c r="P34" s="33" t="s">
         <v>178</v>
@@ -4808,19 +4808,19 @@
         <v>61</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E35" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="F35" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="G35" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="34" t="s">
         <v>281</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>282</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="22">
@@ -4836,10 +4836,10 @@
         <v>1000000</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P35" s="33" t="s">
         <v>178</v>
@@ -4860,19 +4860,19 @@
         <v>61</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E36" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="E36" s="27" t="s">
-        <v>279</v>
-      </c>
       <c r="F36" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H36" s="34" t="s">
         <v>281</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>282</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="22">
@@ -4888,10 +4888,10 @@
         <v>5000000</v>
       </c>
       <c r="N36" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O36" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P36" s="33" t="s">
         <v>178</v>
@@ -4912,19 +4912,19 @@
         <v>61</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E37" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="E37" s="27" t="s">
-        <v>279</v>
-      </c>
       <c r="F37" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="22">
@@ -4940,10 +4940,10 @@
         <v>1000000</v>
       </c>
       <c r="N37" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O37" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P37" s="33" t="s">
         <v>178</v>
@@ -4964,19 +4964,19 @@
         <v>61</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="G38" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="H38" s="25" t="s">
         <v>290</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>291</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="22">
@@ -4995,13 +4995,13 @@
         <v>257</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>257</v>
@@ -5022,19 +5022,19 @@
         <v>61</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="F39" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="25" t="s">
         <v>295</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>296</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="22">
@@ -5059,7 +5059,7 @@
         <v>70</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R39" s="2" t="s">
         <v>257</v>
@@ -5080,19 +5080,19 @@
         <v>61</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="F40" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="25" t="s">
         <v>299</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>300</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="22">
@@ -5108,19 +5108,19 @@
         <v>50000</v>
       </c>
       <c r="N40" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Q40" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="R40" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40" s="41" t="s">
@@ -5138,19 +5138,19 @@
         <v>61</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="F41" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H41" s="25" t="s">
         <v>304</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>305</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="22">
@@ -5166,19 +5166,19 @@
         <v>50000</v>
       </c>
       <c r="N41" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Q41" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="R41" s="33" t="s">
         <v>307</v>
-      </c>
-      <c r="R41" s="33" t="s">
-        <v>308</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="41" t="s">
@@ -5196,19 +5196,19 @@
         <v>61</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="F42" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="25" t="s">
         <v>310</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>311</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="22">
@@ -5224,19 +5224,19 @@
         <v>49064</v>
       </c>
       <c r="N42" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Q42" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="R42" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="41" t="s">
@@ -5254,19 +5254,19 @@
         <v>61</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="F43" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="25" t="s">
         <v>316</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>317</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="22">
@@ -5282,16 +5282,16 @@
         <v>49850</v>
       </c>
       <c r="N43" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="O43" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>222</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R43" s="2" t="s">
         <v>70</v>
@@ -5312,19 +5312,19 @@
         <v>61</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="F44" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="25" t="s">
         <v>322</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>323</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="22">
@@ -5340,19 +5340,19 @@
         <v>79997</v>
       </c>
       <c r="N44" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="P44" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="Q44" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="Q44" s="29" t="s">
+      <c r="R44" s="33" t="s">
         <v>327</v>
-      </c>
-      <c r="R44" s="33" t="s">
-        <v>328</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44" s="41" t="s">
@@ -5370,19 +5370,19 @@
         <v>61</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="F45" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="25" t="s">
         <v>330</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>331</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="22">
@@ -5398,19 +5398,19 @@
         <v>64864</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Q45" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="R45" s="36" t="s">
         <v>333</v>
-      </c>
-      <c r="R45" s="36" t="s">
-        <v>334</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45" s="41" t="s">
@@ -5428,19 +5428,19 @@
         <v>61</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="F46" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="25" t="s">
         <v>336</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>337</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="22">
@@ -5456,19 +5456,19 @@
         <v>49074</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Q46" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="R46" s="33" t="s">
         <v>339</v>
-      </c>
-      <c r="R46" s="33" t="s">
-        <v>340</v>
       </c>
       <c r="S46" s="2"/>
       <c r="T46" s="41" t="s">
@@ -5486,19 +5486,19 @@
         <v>61</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="F47" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="25" t="s">
         <v>342</v>
-      </c>
-      <c r="H47" s="25" t="s">
-        <v>343</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="22">
@@ -5514,19 +5514,19 @@
         <v>37317</v>
       </c>
       <c r="N47" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R47" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S47" s="2"/>
       <c r="T47" s="41" t="s">
@@ -5544,19 +5544,19 @@
         <v>61</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="F48" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="25" t="s">
         <v>348</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>349</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="22">
@@ -5575,16 +5575,16 @@
         <v>228</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>228</v>
       </c>
       <c r="Q48" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="R48" s="33" t="s">
         <v>351</v>
-      </c>
-      <c r="R48" s="33" t="s">
-        <v>352</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48" s="41" t="s">
@@ -5602,19 +5602,19 @@
         <v>61</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="F49" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="25" t="s">
         <v>354</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>355</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="22">
@@ -5630,16 +5630,16 @@
         <v>46380</v>
       </c>
       <c r="N49" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R49" s="33"/>
       <c r="S49" s="2"/>
@@ -5658,19 +5658,19 @@
         <v>61</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="F50" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="25" t="s">
         <v>360</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>361</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="22">
@@ -5686,19 +5686,19 @@
         <v>62876</v>
       </c>
       <c r="N50" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O50" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="R50" s="33" t="s">
         <v>362</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="R50" s="33" t="s">
-        <v>363</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50" s="41" t="s">
@@ -5716,19 +5716,19 @@
         <v>61</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="F51" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="25" t="s">
         <v>365</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>366</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="22">
@@ -5744,19 +5744,19 @@
         <v>35242</v>
       </c>
       <c r="N51" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="O51" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="P51" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="Q51" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="R51" s="33" t="s">
         <v>370</v>
-      </c>
-      <c r="R51" s="33" t="s">
-        <v>371</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="41" t="s">
@@ -5774,19 +5774,19 @@
         <v>61</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="F52" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="25" t="s">
         <v>373</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>374</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="22">
@@ -5802,19 +5802,19 @@
         <v>48686</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Q52" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="R52" s="33" t="s">
         <v>351</v>
-      </c>
-      <c r="R52" s="33" t="s">
-        <v>352</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52" s="41" t="s">
@@ -5832,19 +5832,19 @@
         <v>61</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="F53" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="25" t="s">
         <v>376</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>377</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="22">
@@ -5860,19 +5860,19 @@
         <v>46605</v>
       </c>
       <c r="N53" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="O53" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R53" s="33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S53" s="2"/>
       <c r="T53" s="41" t="s">
@@ -5890,19 +5890,19 @@
         <v>61</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="F54" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="25" t="s">
         <v>382</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>383</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="22">
@@ -5918,19 +5918,19 @@
         <v>61262</v>
       </c>
       <c r="N54" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>70</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R54" s="33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54" s="41" t="s">
@@ -5945,22 +5945,22 @@
         <v>60</v>
       </c>
       <c r="C55" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F55" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="22">
@@ -5979,7 +5979,7 @@
         <v>252</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>70</v>
@@ -5988,7 +5988,7 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="17.25" customHeight="1">
@@ -5999,22 +5999,22 @@
         <v>60</v>
       </c>
       <c r="C56" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F56" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="22">
@@ -6033,14 +6033,14 @@
         <v>252</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="17.25" customHeight="1">
@@ -6051,22 +6051,22 @@
         <v>60</v>
       </c>
       <c r="C57" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F57" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="22">
@@ -6085,14 +6085,14 @@
         <v>252</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="17.25" customHeight="1">
@@ -6103,22 +6103,22 @@
         <v>60</v>
       </c>
       <c r="C58" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F58" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="22">
@@ -6137,14 +6137,14 @@
         <v>252</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="41" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="17.25" customHeight="1">
@@ -6155,22 +6155,22 @@
         <v>60</v>
       </c>
       <c r="C59" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F59" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="22">
@@ -6189,7 +6189,7 @@
         <v>252</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>70</v>
@@ -6198,7 +6198,7 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="17.25" customHeight="1">
@@ -6209,22 +6209,22 @@
         <v>60</v>
       </c>
       <c r="C60" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F60" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="22">
@@ -6243,7 +6243,7 @@
         <v>252</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>70</v>
@@ -6252,7 +6252,7 @@
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="17.25" customHeight="1">
@@ -6263,22 +6263,22 @@
         <v>60</v>
       </c>
       <c r="C61" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F61" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="22">
@@ -6297,14 +6297,14 @@
         <v>252</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="41" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="17.25" customHeight="1">
@@ -6315,22 +6315,22 @@
         <v>60</v>
       </c>
       <c r="C62" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F62" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="22">
@@ -6349,7 +6349,7 @@
         <v>252</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>70</v>
@@ -6358,7 +6358,7 @@
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="17.25" customHeight="1">
@@ -6369,22 +6369,22 @@
         <v>60</v>
       </c>
       <c r="C63" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F63" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="22">
@@ -6403,14 +6403,14 @@
         <v>252</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="41" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="17.25" customHeight="1">
@@ -6421,22 +6421,22 @@
         <v>60</v>
       </c>
       <c r="C64" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F64" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="22">
@@ -6455,14 +6455,14 @@
         <v>252</v>
       </c>
       <c r="O64" s="39" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P64" s="39"/>
       <c r="Q64" s="39"/>
       <c r="R64" s="39"/>
       <c r="S64" s="2"/>
       <c r="T64" s="41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="17.25" customHeight="1">
@@ -6473,22 +6473,22 @@
         <v>60</v>
       </c>
       <c r="C65" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F65" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="22">
@@ -6507,7 +6507,7 @@
         <v>252</v>
       </c>
       <c r="O65" s="39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P65" s="39" t="s">
         <v>70</v>
@@ -6516,7 +6516,7 @@
       <c r="R65" s="39"/>
       <c r="S65" s="2"/>
       <c r="T65" s="41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="17.25" customHeight="1">
@@ -6527,22 +6527,22 @@
         <v>60</v>
       </c>
       <c r="C66" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F66" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="22">
@@ -6561,14 +6561,14 @@
         <v>252</v>
       </c>
       <c r="O66" s="39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P66" s="39"/>
       <c r="Q66" s="39"/>
       <c r="R66" s="39"/>
       <c r="S66" s="2"/>
       <c r="T66" s="41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="17.25" customHeight="1">
@@ -6579,22 +6579,22 @@
         <v>60</v>
       </c>
       <c r="C67" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F67" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="22">
@@ -6613,14 +6613,14 @@
         <v>252</v>
       </c>
       <c r="O67" s="39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P67" s="39"/>
       <c r="Q67" s="39"/>
       <c r="R67" s="39"/>
       <c r="S67" s="2"/>
       <c r="T67" s="41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="17.25" customHeight="1">
@@ -6631,22 +6631,22 @@
         <v>60</v>
       </c>
       <c r="C68" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F68" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="22">
@@ -6665,7 +6665,7 @@
         <v>252</v>
       </c>
       <c r="O68" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P68" s="39" t="s">
         <v>70</v>
@@ -6674,7 +6674,7 @@
       <c r="R68" s="39"/>
       <c r="S68" s="2"/>
       <c r="T68" s="41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="17.25" customHeight="1">
@@ -6685,22 +6685,22 @@
         <v>60</v>
       </c>
       <c r="C69" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F69" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="22">
@@ -6719,7 +6719,7 @@
         <v>252</v>
       </c>
       <c r="O69" s="39" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P69" s="39" t="s">
         <v>70</v>
@@ -6730,7 +6730,7 @@
       </c>
       <c r="S69" s="2"/>
       <c r="T69" s="41" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="17.25" customHeight="1">
@@ -6741,22 +6741,22 @@
         <v>60</v>
       </c>
       <c r="C70" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F70" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="22">
@@ -6775,14 +6775,14 @@
         <v>252</v>
       </c>
       <c r="O70" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P70" s="39"/>
       <c r="Q70" s="39"/>
       <c r="R70" s="39"/>
       <c r="S70" s="2"/>
       <c r="T70" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="17.25" customHeight="1">
@@ -6793,22 +6793,22 @@
         <v>60</v>
       </c>
       <c r="C71" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F71" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="22">
@@ -6827,14 +6827,14 @@
         <v>252</v>
       </c>
       <c r="O71" s="39" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P71" s="39"/>
       <c r="Q71" s="39"/>
       <c r="R71" s="39"/>
       <c r="S71" s="2"/>
       <c r="T71" s="41" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="17.25" customHeight="1">
@@ -6845,22 +6845,22 @@
         <v>60</v>
       </c>
       <c r="C72" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F72" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="22">
@@ -6879,7 +6879,7 @@
         <v>252</v>
       </c>
       <c r="O72" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P72" s="39" t="s">
         <v>70</v>
@@ -6888,7 +6888,7 @@
       <c r="R72" s="39"/>
       <c r="S72" s="2"/>
       <c r="T72" s="41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="17.25" customHeight="1">
@@ -6899,22 +6899,22 @@
         <v>60</v>
       </c>
       <c r="C73" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F73" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="22">
@@ -6933,7 +6933,7 @@
         <v>252</v>
       </c>
       <c r="O73" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>70</v>
@@ -6942,7 +6942,7 @@
       <c r="R73" s="39"/>
       <c r="S73" s="2"/>
       <c r="T73" s="41" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="17.25" customHeight="1">
@@ -6953,22 +6953,22 @@
         <v>60</v>
       </c>
       <c r="C74" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F74" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="22">
@@ -6987,7 +6987,7 @@
         <v>252</v>
       </c>
       <c r="O74" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P74" s="39" t="s">
         <v>70</v>
@@ -6996,7 +6996,7 @@
       <c r="R74" s="39"/>
       <c r="S74" s="2"/>
       <c r="T74" s="41" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="17.25" customHeight="1">
@@ -7007,22 +7007,22 @@
         <v>60</v>
       </c>
       <c r="C75" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F75" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H75" s="39" t="s">
         <v>483</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="H75" s="39" t="s">
-        <v>484</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="22">
@@ -7041,14 +7041,14 @@
         <v>252</v>
       </c>
       <c r="O75" s="39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P75" s="39"/>
       <c r="Q75" s="39"/>
       <c r="R75" s="39"/>
       <c r="S75" s="2"/>
       <c r="T75" s="41" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="17.25" customHeight="1">
@@ -7059,22 +7059,22 @@
         <v>60</v>
       </c>
       <c r="C76" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F76" s="42" t="s">
+        <v>485</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="22">
@@ -7093,14 +7093,14 @@
         <v>252</v>
       </c>
       <c r="O76" s="39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P76" s="39"/>
       <c r="Q76" s="39"/>
       <c r="R76" s="39"/>
       <c r="S76" s="2"/>
       <c r="T76" s="41" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="17.25" customHeight="1">
@@ -7111,22 +7111,22 @@
         <v>60</v>
       </c>
       <c r="C77" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D77" s="39" t="s">
         <v>386</v>
-      </c>
-      <c r="D77" s="39" t="s">
-        <v>387</v>
       </c>
       <c r="E77" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F77" s="42" t="s">
+        <v>489</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="H77" s="39" t="s">
         <v>491</v>
-      </c>
-      <c r="H77" s="39" t="s">
-        <v>492</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="22">
@@ -7145,14 +7145,14 @@
         <v>252</v>
       </c>
       <c r="O77" s="39" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P77" s="39"/>
       <c r="Q77" s="39"/>
       <c r="R77" s="39"/>
       <c r="S77" s="2"/>
       <c r="T77" s="41" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="17.25" customHeight="1">
@@ -7163,22 +7163,22 @@
         <v>60</v>
       </c>
       <c r="C78" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D78" s="39" t="s">
         <v>386</v>
-      </c>
-      <c r="D78" s="39" t="s">
-        <v>387</v>
       </c>
       <c r="E78" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F78" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="H78" s="39" t="s">
         <v>495</v>
-      </c>
-      <c r="H78" s="39" t="s">
-        <v>496</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="22">
@@ -7197,14 +7197,14 @@
         <v>252</v>
       </c>
       <c r="O78" s="39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P78" s="39"/>
       <c r="Q78" s="39"/>
       <c r="R78" s="39"/>
       <c r="S78" s="2"/>
       <c r="T78" s="41" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="17.25" customHeight="1">
@@ -7215,19 +7215,19 @@
         <v>60</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D79" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="E79" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="F79" s="42" t="s">
         <v>499</v>
       </c>
-      <c r="F79" s="42" t="s">
+      <c r="G79" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="2"/>
@@ -7245,14 +7245,14 @@
         <v>252</v>
       </c>
       <c r="O79" s="39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P79" s="39"/>
       <c r="Q79" s="39"/>
       <c r="R79" s="39"/>
       <c r="S79" s="2"/>
       <c r="T79" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="17.25" customHeight="1">
@@ -7263,19 +7263,19 @@
         <v>60</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D80" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="E80" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="E80" s="39" t="s">
-        <v>499</v>
-      </c>
       <c r="F80" s="42" t="s">
+        <v>503</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="2"/>
@@ -7293,14 +7293,14 @@
         <v>252</v>
       </c>
       <c r="O80" s="39" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P80" s="39"/>
       <c r="Q80" s="39"/>
       <c r="R80" s="39"/>
       <c r="S80" s="2"/>
       <c r="T80" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="17.25" customHeight="1">
@@ -7311,19 +7311,19 @@
         <v>60</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D81" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="E81" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="E81" s="39" t="s">
-        <v>499</v>
-      </c>
       <c r="F81" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="2"/>
@@ -7341,14 +7341,14 @@
         <v>252</v>
       </c>
       <c r="O81" s="39" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P81" s="39"/>
       <c r="Q81" s="39"/>
       <c r="R81" s="39"/>
       <c r="S81" s="2"/>
       <c r="T81" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="17.25" customHeight="1">
@@ -7359,19 +7359,19 @@
         <v>60</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D82" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="E82" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="E82" s="39" t="s">
-        <v>499</v>
-      </c>
       <c r="F82" s="42" t="s">
+        <v>509</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="2"/>
@@ -7389,14 +7389,14 @@
         <v>252</v>
       </c>
       <c r="O82" s="39" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P82" s="39"/>
       <c r="Q82" s="39"/>
       <c r="R82" s="39"/>
       <c r="S82" s="2"/>
       <c r="T82" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="17.25" customHeight="1">
@@ -7407,19 +7407,19 @@
         <v>60</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D83" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="E83" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="E83" s="39" t="s">
-        <v>499</v>
-      </c>
       <c r="F83" s="42" t="s">
+        <v>512</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>514</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="2"/>
@@ -7437,14 +7437,14 @@
         <v>252</v>
       </c>
       <c r="O83" s="39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P83" s="39"/>
       <c r="Q83" s="39"/>
       <c r="R83" s="39"/>
       <c r="S83" s="2"/>
       <c r="T83" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="17.25" customHeight="1">
@@ -7455,19 +7455,19 @@
         <v>60</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D84" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="E84" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="E84" s="39" t="s">
-        <v>499</v>
-      </c>
       <c r="F84" s="42" t="s">
+        <v>515</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="2"/>
@@ -7483,14 +7483,14 @@
         <v>252</v>
       </c>
       <c r="O84" s="39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P84" s="39"/>
       <c r="Q84" s="39"/>
       <c r="R84" s="39"/>
       <c r="S84" s="2"/>
       <c r="T84" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="17.25" customHeight="1">
@@ -7501,22 +7501,22 @@
         <v>60</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D85" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E85" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F85" s="42" t="s">
+        <v>519</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="H85" s="39" t="s">
         <v>521</v>
-      </c>
-      <c r="H85" s="39" t="s">
-        <v>522</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="22">
@@ -7535,7 +7535,7 @@
         <v>252</v>
       </c>
       <c r="O85" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P85" s="39" t="s">
         <v>70</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="S85" s="2"/>
       <c r="T85" s="41" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="17.25" customHeight="1">
@@ -7559,22 +7559,22 @@
         <v>60</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D86" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E86" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F86" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="H86" s="39" t="s">
         <v>525</v>
-      </c>
-      <c r="H86" s="39" t="s">
-        <v>526</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="22">
@@ -7593,7 +7593,7 @@
         <v>252</v>
       </c>
       <c r="O86" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>70</v>
@@ -7606,7 +7606,7 @@
       </c>
       <c r="S86" s="2"/>
       <c r="T86" s="41" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="17.25" customHeight="1">
@@ -7617,22 +7617,22 @@
         <v>60</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D87" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E87" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F87" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="H87" s="39" t="s">
         <v>529</v>
-      </c>
-      <c r="H87" s="39" t="s">
-        <v>530</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="22">
@@ -7651,14 +7651,14 @@
         <v>252</v>
       </c>
       <c r="O87" s="39" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P87" s="39"/>
       <c r="Q87" s="39"/>
       <c r="R87" s="39"/>
       <c r="S87" s="2"/>
       <c r="T87" s="41" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="17.25" customHeight="1">
@@ -7669,22 +7669,22 @@
         <v>60</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D88" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E88" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F88" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="H88" s="39" t="s">
         <v>533</v>
-      </c>
-      <c r="H88" s="39" t="s">
-        <v>534</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="22">
@@ -7703,7 +7703,7 @@
         <v>252</v>
       </c>
       <c r="O88" s="39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P88" s="2" t="s">
         <v>70</v>
@@ -7712,7 +7712,7 @@
       <c r="R88" s="39"/>
       <c r="S88" s="2"/>
       <c r="T88" s="41" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="17.25" customHeight="1">
@@ -7723,22 +7723,22 @@
         <v>60</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D89" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E89" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F89" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="H89" s="39" t="s">
         <v>537</v>
-      </c>
-      <c r="H89" s="39" t="s">
-        <v>538</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="22">
@@ -7757,7 +7757,7 @@
         <v>252</v>
       </c>
       <c r="O89" s="39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P89" s="39" t="s">
         <v>70</v>
@@ -7766,7 +7766,7 @@
       <c r="R89" s="39"/>
       <c r="S89" s="2"/>
       <c r="T89" s="41" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="17.25" customHeight="1">
@@ -7777,22 +7777,22 @@
         <v>60</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D90" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E90" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F90" s="42" t="s">
+        <v>539</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="H90" s="39" t="s">
         <v>541</v>
-      </c>
-      <c r="H90" s="39" t="s">
-        <v>542</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="22">
@@ -7811,14 +7811,14 @@
         <v>252</v>
       </c>
       <c r="O90" s="39" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P90" s="39"/>
       <c r="Q90" s="39"/>
       <c r="R90" s="39"/>
       <c r="S90" s="2"/>
       <c r="T90" s="41" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="17.25" customHeight="1">
@@ -7829,22 +7829,22 @@
         <v>60</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D91" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E91" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F91" s="42" t="s">
+        <v>544</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="H91" s="39" t="s">
         <v>546</v>
-      </c>
-      <c r="H91" s="39" t="s">
-        <v>547</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="22">
@@ -7863,14 +7863,14 @@
         <v>252</v>
       </c>
       <c r="O91" s="39" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P91" s="39"/>
       <c r="Q91" s="39"/>
       <c r="R91" s="39"/>
       <c r="S91" s="2"/>
       <c r="T91" s="41" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="17.25" customHeight="1">
@@ -7881,22 +7881,22 @@
         <v>60</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D92" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E92" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F92" s="42" t="s">
+        <v>549</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" s="39" t="s">
         <v>551</v>
-      </c>
-      <c r="H92" s="39" t="s">
-        <v>552</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="22">
@@ -7915,7 +7915,7 @@
         <v>252</v>
       </c>
       <c r="O92" s="39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>70</v>
@@ -7924,7 +7924,7 @@
       <c r="R92" s="39"/>
       <c r="S92" s="2"/>
       <c r="T92" s="41" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="17.25" customHeight="1">
@@ -7935,22 +7935,22 @@
         <v>60</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D93" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E93" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F93" s="42" t="s">
+        <v>553</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="H93" s="39" t="s">
         <v>555</v>
-      </c>
-      <c r="H93" s="39" t="s">
-        <v>556</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="22">
@@ -7969,7 +7969,7 @@
         <v>252</v>
       </c>
       <c r="O93" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P93" s="39" t="s">
         <v>70</v>
@@ -7978,7 +7978,7 @@
       <c r="R93" s="39"/>
       <c r="S93" s="2"/>
       <c r="T93" s="41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="17.25" customHeight="1">
@@ -7989,22 +7989,22 @@
         <v>60</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D94" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E94" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F94" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="H94" s="39" t="s">
         <v>559</v>
-      </c>
-      <c r="H94" s="39" t="s">
-        <v>560</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="22">
@@ -8023,7 +8023,7 @@
         <v>252</v>
       </c>
       <c r="O94" s="39" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="P94" s="39" t="s">
         <v>70</v>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="S94" s="2"/>
       <c r="T94" s="41" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="17.25" customHeight="1">
@@ -8047,22 +8047,22 @@
         <v>60</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D95" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E95" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F95" s="42" t="s">
+        <v>562</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="H95" s="39" t="s">
         <v>564</v>
-      </c>
-      <c r="H95" s="39" t="s">
-        <v>565</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="22">
@@ -8081,7 +8081,7 @@
         <v>252</v>
       </c>
       <c r="O95" s="39" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="P95" s="39"/>
       <c r="Q95" s="39"/>
@@ -8090,7 +8090,7 @@
       </c>
       <c r="S95" s="2"/>
       <c r="T95" s="41" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="17.25" customHeight="1">
@@ -8101,22 +8101,22 @@
         <v>60</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D96" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E96" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F96" s="42" t="s">
+        <v>567</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="H96" s="39" t="s">
         <v>569</v>
-      </c>
-      <c r="H96" s="39" t="s">
-        <v>570</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="22">
@@ -8135,7 +8135,7 @@
         <v>252</v>
       </c>
       <c r="O96" s="39" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="P96" s="39"/>
       <c r="Q96" s="39"/>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="S96" s="2"/>
       <c r="T96" s="41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="17.25" customHeight="1">
@@ -8155,22 +8155,22 @@
         <v>60</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D97" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E97" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F97" s="42" t="s">
+        <v>572</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="H97" s="39" t="s">
         <v>574</v>
-      </c>
-      <c r="H97" s="39" t="s">
-        <v>575</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="22">
@@ -8189,7 +8189,7 @@
         <v>252</v>
       </c>
       <c r="O97" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P97" s="39" t="s">
         <v>70</v>
@@ -8202,7 +8202,7 @@
       </c>
       <c r="S97" s="2"/>
       <c r="T97" s="41" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="17.25" customHeight="1">
@@ -8213,22 +8213,22 @@
         <v>60</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D98" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E98" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F98" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="H98" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="22">
@@ -8247,7 +8247,7 @@
         <v>252</v>
       </c>
       <c r="O98" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P98" s="39" t="s">
         <v>70</v>
@@ -8256,7 +8256,7 @@
       <c r="R98" s="39"/>
       <c r="S98" s="2"/>
       <c r="T98" s="41" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="17.25" customHeight="1">
@@ -8267,22 +8267,22 @@
         <v>60</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D99" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E99" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F99" s="42" t="s">
+        <v>579</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>581</v>
-      </c>
       <c r="H99" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="22">
@@ -8301,7 +8301,7 @@
         <v>252</v>
       </c>
       <c r="O99" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P99" s="2" t="s">
         <v>70</v>
@@ -8310,7 +8310,7 @@
       <c r="R99" s="39"/>
       <c r="S99" s="2"/>
       <c r="T99" s="41" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="17.25" customHeight="1">
@@ -8321,22 +8321,22 @@
         <v>60</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D100" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E100" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F100" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="H100" s="39" t="s">
         <v>584</v>
-      </c>
-      <c r="H100" s="39" t="s">
-        <v>585</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="22">
@@ -8355,7 +8355,7 @@
         <v>252</v>
       </c>
       <c r="O100" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P100" s="39" t="s">
         <v>70</v>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="S100" s="2"/>
       <c r="T100" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="17.25" customHeight="1">
@@ -8379,22 +8379,22 @@
         <v>60</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D101" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E101" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F101" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="H101" s="39" t="s">
         <v>588</v>
-      </c>
-      <c r="H101" s="39" t="s">
-        <v>589</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="22">
@@ -8413,14 +8413,14 @@
         <v>252</v>
       </c>
       <c r="O101" s="39" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P101" s="39"/>
       <c r="Q101" s="39"/>
       <c r="R101" s="39"/>
       <c r="S101" s="2"/>
       <c r="T101" s="41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="17.25" customHeight="1">
@@ -8431,22 +8431,22 @@
         <v>60</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D102" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E102" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F102" s="42" t="s">
+        <v>591</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="H102" s="39" t="s">
         <v>593</v>
-      </c>
-      <c r="H102" s="39" t="s">
-        <v>594</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="22">
@@ -8465,14 +8465,14 @@
         <v>252</v>
       </c>
       <c r="O102" s="39" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="P102" s="39"/>
       <c r="Q102" s="39"/>
       <c r="R102" s="39"/>
       <c r="S102" s="2"/>
       <c r="T102" s="41" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="17.25" customHeight="1">
@@ -8483,22 +8483,22 @@
         <v>60</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D103" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E103" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F103" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>598</v>
-      </c>
       <c r="H103" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="22">
@@ -8517,7 +8517,7 @@
         <v>252</v>
       </c>
       <c r="O103" s="39" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="P103" s="39" t="s">
         <v>70</v>
@@ -8526,7 +8526,7 @@
       <c r="R103" s="39"/>
       <c r="S103" s="2"/>
       <c r="T103" s="41" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="17.25" customHeight="1">
@@ -8537,22 +8537,22 @@
         <v>60</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D104" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E104" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F104" s="42" t="s">
+        <v>600</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>602</v>
-      </c>
       <c r="H104" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="22">
@@ -8571,14 +8571,14 @@
         <v>252</v>
       </c>
       <c r="O104" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P104" s="39"/>
       <c r="Q104" s="39"/>
       <c r="R104" s="39"/>
       <c r="S104" s="2"/>
       <c r="T104" s="41" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="17.25" customHeight="1">
@@ -8589,22 +8589,22 @@
         <v>60</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D105" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E105" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F105" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>606</v>
-      </c>
       <c r="H105" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="22">
@@ -8623,7 +8623,7 @@
         <v>252</v>
       </c>
       <c r="O105" s="39" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P105" s="39" t="s">
         <v>70</v>
@@ -8632,7 +8632,7 @@
       <c r="R105" s="39"/>
       <c r="S105" s="2"/>
       <c r="T105" s="41" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="17.25" customHeight="1">
@@ -8643,22 +8643,22 @@
         <v>60</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D106" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E106" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F106" s="42" t="s">
+        <v>608</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="H106" s="39" t="s">
         <v>610</v>
-      </c>
-      <c r="H106" s="39" t="s">
-        <v>611</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="22">
@@ -8677,7 +8677,7 @@
         <v>252</v>
       </c>
       <c r="O106" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P106" s="39" t="s">
         <v>70</v>
@@ -8686,7 +8686,7 @@
       <c r="R106" s="39"/>
       <c r="S106" s="2"/>
       <c r="T106" s="41" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="17.25" customHeight="1">
@@ -8697,22 +8697,22 @@
         <v>60</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D107" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E107" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F107" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="H107" s="39" t="s">
         <v>614</v>
-      </c>
-      <c r="H107" s="39" t="s">
-        <v>615</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="22">
@@ -8731,14 +8731,14 @@
         <v>252</v>
       </c>
       <c r="O107" s="39" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="P107" s="39"/>
       <c r="Q107" s="39"/>
       <c r="R107" s="39"/>
       <c r="S107" s="2"/>
       <c r="T107" s="41" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="17.25" customHeight="1">
@@ -8749,22 +8749,22 @@
         <v>60</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D108" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E108" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F108" s="42" t="s">
+        <v>617</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="G108" s="2" t="s">
+      <c r="H108" s="39" t="s">
         <v>619</v>
-      </c>
-      <c r="H108" s="39" t="s">
-        <v>620</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="22">
@@ -8783,7 +8783,7 @@
         <v>252</v>
       </c>
       <c r="O108" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P108" s="39" t="s">
         <v>70</v>
@@ -8792,7 +8792,7 @@
       <c r="R108" s="39"/>
       <c r="S108" s="2"/>
       <c r="T108" s="41" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="17.25" customHeight="1">
@@ -8803,22 +8803,22 @@
         <v>60</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D109" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E109" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F109" s="42" t="s">
+        <v>621</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="H109" s="39" t="s">
         <v>623</v>
-      </c>
-      <c r="H109" s="39" t="s">
-        <v>624</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="22">
@@ -8837,7 +8837,7 @@
         <v>252</v>
       </c>
       <c r="O109" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P109" s="39" t="s">
         <v>70</v>
@@ -8846,7 +8846,7 @@
       <c r="R109" s="39"/>
       <c r="S109" s="2"/>
       <c r="T109" s="41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="110" spans="1:20" ht="17.25" customHeight="1">
@@ -8857,22 +8857,22 @@
         <v>60</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D110" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E110" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F110" s="42" t="s">
+        <v>625</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="H110" s="39" t="s">
         <v>627</v>
-      </c>
-      <c r="H110" s="39" t="s">
-        <v>628</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="22">
@@ -8891,7 +8891,7 @@
         <v>252</v>
       </c>
       <c r="O110" s="39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P110" s="39" t="s">
         <v>70</v>
@@ -8900,7 +8900,7 @@
       <c r="R110" s="39"/>
       <c r="S110" s="2"/>
       <c r="T110" s="41" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="17.25" customHeight="1">
@@ -8911,22 +8911,22 @@
         <v>60</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D111" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E111" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F111" s="42" t="s">
+        <v>629</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="H111" s="39" t="s">
         <v>630</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="H111" s="39" t="s">
-        <v>631</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="22">
@@ -8945,7 +8945,7 @@
         <v>252</v>
       </c>
       <c r="O111" s="39" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P111" s="39" t="s">
         <v>70</v>
@@ -8954,7 +8954,7 @@
       <c r="R111" s="39"/>
       <c r="S111" s="2"/>
       <c r="T111" s="41" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="17.25" customHeight="1">
@@ -8965,22 +8965,22 @@
         <v>60</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D112" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E112" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F112" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="H112" s="39" t="s">
         <v>634</v>
-      </c>
-      <c r="H112" s="39" t="s">
-        <v>635</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="22">
@@ -8999,7 +8999,7 @@
         <v>252</v>
       </c>
       <c r="O112" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P112" s="2" t="s">
         <v>70</v>
@@ -9008,7 +9008,7 @@
       <c r="R112" s="39"/>
       <c r="S112" s="2"/>
       <c r="T112" s="41" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="113" spans="1:20" ht="17.25" customHeight="1">
@@ -9019,22 +9019,22 @@
         <v>60</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D113" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E113" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F113" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="H113" s="39" t="s">
         <v>638</v>
-      </c>
-      <c r="H113" s="39" t="s">
-        <v>639</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="22">
@@ -9053,7 +9053,7 @@
         <v>252</v>
       </c>
       <c r="O113" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P113" s="39" t="s">
         <v>70</v>
@@ -9062,7 +9062,7 @@
       <c r="R113" s="39"/>
       <c r="S113" s="2"/>
       <c r="T113" s="41" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="114" spans="1:20" ht="17.25" customHeight="1">
@@ -9073,22 +9073,22 @@
         <v>60</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D114" s="39" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E114" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F114" s="42" t="s">
+        <v>641</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="H114" s="39" t="s">
         <v>643</v>
-      </c>
-      <c r="H114" s="39" t="s">
-        <v>644</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="22">
@@ -9107,14 +9107,14 @@
         <v>252</v>
       </c>
       <c r="O114" s="39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P114" s="39"/>
       <c r="Q114" s="39"/>
       <c r="R114" s="39"/>
       <c r="S114" s="2"/>
       <c r="T114" s="41" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="115" spans="1:20" ht="17.25" customHeight="1">
@@ -9125,22 +9125,22 @@
         <v>60</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D115" s="39" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E115" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F115" s="42" t="s">
+        <v>645</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="H115" s="39" t="s">
         <v>647</v>
-      </c>
-      <c r="H115" s="39" t="s">
-        <v>648</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="22">
@@ -9159,7 +9159,7 @@
         <v>252</v>
       </c>
       <c r="O115" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P115" s="39" t="s">
         <v>70</v>
@@ -9168,7 +9168,7 @@
       <c r="R115" s="39"/>
       <c r="S115" s="2"/>
       <c r="T115" s="41" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="116" spans="1:20" ht="17.25" customHeight="1">
@@ -9179,22 +9179,22 @@
         <v>60</v>
       </c>
       <c r="C116" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D116" s="39" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E116" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F116" s="42" t="s">
+        <v>649</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="H116" s="39" t="s">
         <v>651</v>
-      </c>
-      <c r="H116" s="39" t="s">
-        <v>652</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="22">
@@ -9213,7 +9213,7 @@
         <v>252</v>
       </c>
       <c r="O116" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P116" s="39" t="s">
         <v>70</v>
@@ -9222,7 +9222,7 @@
       <c r="R116" s="39"/>
       <c r="S116" s="2"/>
       <c r="T116" s="41" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="117" spans="1:20" ht="17.25" customHeight="1">
@@ -9233,22 +9233,22 @@
         <v>60</v>
       </c>
       <c r="C117" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D117" s="39" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E117" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F117" s="42" t="s">
+        <v>653</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="H117" s="39" t="s">
         <v>655</v>
-      </c>
-      <c r="H117" s="39" t="s">
-        <v>656</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="22">
@@ -9267,7 +9267,7 @@
         <v>252</v>
       </c>
       <c r="O117" s="39" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="P117" s="39" t="s">
         <v>70</v>
@@ -9276,7 +9276,7 @@
       <c r="R117" s="39"/>
       <c r="S117" s="2"/>
       <c r="T117" s="41" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="118" spans="1:20" ht="17.25" customHeight="1">
@@ -9287,22 +9287,22 @@
         <v>60</v>
       </c>
       <c r="C118" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D118" s="39" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E118" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F118" s="42" t="s">
+        <v>658</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="H118" s="39" t="s">
         <v>660</v>
-      </c>
-      <c r="H118" s="39" t="s">
-        <v>661</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="22">
@@ -9321,14 +9321,14 @@
         <v>252</v>
       </c>
       <c r="O118" s="39" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P118" s="39"/>
       <c r="Q118" s="39"/>
       <c r="R118" s="39"/>
       <c r="S118" s="2"/>
       <c r="T118" s="41" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="119" spans="1:20" ht="17.25" customHeight="1">
@@ -9339,22 +9339,22 @@
         <v>60</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D119" s="39" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E119" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F119" s="42" t="s">
+        <v>663</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="H119" s="39" t="s">
         <v>665</v>
-      </c>
-      <c r="H119" s="39" t="s">
-        <v>666</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="22">
@@ -9373,7 +9373,7 @@
         <v>252</v>
       </c>
       <c r="O119" s="39" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P119" s="39" t="s">
         <v>70</v>
@@ -9382,7 +9382,7 @@
       <c r="R119" s="39"/>
       <c r="S119" s="2"/>
       <c r="T119" s="41" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="120" spans="1:20" ht="17.25" customHeight="1">
@@ -9393,22 +9393,22 @@
         <v>60</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D120" s="39" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E120" s="39" t="s">
         <v>63</v>
       </c>
       <c r="F120" s="42" t="s">
+        <v>667</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="H120" s="39" t="s">
         <v>669</v>
-      </c>
-      <c r="H120" s="39" t="s">
-        <v>670</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="22">
@@ -9427,7 +9427,7 @@
         <v>252</v>
       </c>
       <c r="O120" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P120" s="39" t="s">
         <v>70</v>
@@ -9436,7 +9436,7 @@
       <c r="R120" s="39"/>
       <c r="S120" s="2"/>
       <c r="T120" s="41" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="121" spans="1:20" ht="17.25" customHeight="1">
@@ -9447,19 +9447,19 @@
         <v>60</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D121" s="39" t="s">
+        <v>671</v>
+      </c>
+      <c r="E121" s="39" t="s">
+        <v>498</v>
+      </c>
+      <c r="F121" s="42" t="s">
         <v>672</v>
       </c>
-      <c r="E121" s="39" t="s">
-        <v>499</v>
-      </c>
-      <c r="F121" s="42" t="s">
+      <c r="G121" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="H121" s="39"/>
       <c r="I121" s="2"/>
@@ -9477,7 +9477,7 @@
         <v>252</v>
       </c>
       <c r="O121" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P121" s="39" t="s">
         <v>70</v>
@@ -9486,7 +9486,7 @@
       <c r="R121" s="39"/>
       <c r="S121" s="2"/>
       <c r="T121" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="122" spans="1:20" ht="17.25" customHeight="1">
@@ -9497,19 +9497,19 @@
         <v>60</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D122" s="39" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E122" s="39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F122" s="42" t="s">
+        <v>674</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="H122" s="39"/>
       <c r="I122" s="2"/>
@@ -9527,7 +9527,7 @@
         <v>252</v>
       </c>
       <c r="O122" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P122" s="39" t="s">
         <v>70</v>
@@ -9536,7 +9536,7 @@
       <c r="R122" s="39"/>
       <c r="S122" s="2"/>
       <c r="T122" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="123" spans="1:20" ht="17.25" customHeight="1">
@@ -9547,19 +9547,19 @@
         <v>60</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D123" s="39" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E123" s="39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F123" s="42" t="s">
+        <v>676</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="H123" s="39"/>
       <c r="I123" s="2"/>
@@ -9577,7 +9577,7 @@
         <v>252</v>
       </c>
       <c r="O123" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P123" s="39" t="s">
         <v>70</v>
@@ -9586,7 +9586,7 @@
       <c r="R123" s="39"/>
       <c r="S123" s="2"/>
       <c r="T123" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:20" ht="17.25" customHeight="1">
@@ -9597,19 +9597,19 @@
         <v>60</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D124" s="39" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E124" s="39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F124" s="42" t="s">
+        <v>678</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="H124" s="39"/>
       <c r="I124" s="2"/>
@@ -9627,7 +9627,7 @@
         <v>252</v>
       </c>
       <c r="O124" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P124" s="39" t="s">
         <v>70</v>
@@ -9636,7 +9636,7 @@
       <c r="R124" s="39"/>
       <c r="S124" s="2"/>
       <c r="T124" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="125" spans="1:20" ht="17.25" customHeight="1">
@@ -9647,19 +9647,19 @@
         <v>60</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D125" s="39" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E125" s="39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F125" s="42" t="s">
+        <v>680</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="H125" s="39"/>
       <c r="I125" s="2"/>
@@ -9677,7 +9677,7 @@
         <v>252</v>
       </c>
       <c r="O125" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P125" s="39" t="s">
         <v>70</v>
@@ -9686,7 +9686,7 @@
       <c r="R125" s="39"/>
       <c r="S125" s="2"/>
       <c r="T125" s="41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:20" ht="13.5" customHeight="1">
@@ -27893,7 +27893,6 @@
       <c r="T988" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T125" xr:uid="{9D4B1E4E-0BB2-4C06-BDCC-4A361BC1C401}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -29196,21 +29195,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29454,19 +29453,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D95885E-3D3E-41C7-BCB5-60294B0AB1EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C49041-F246-4B03-A83A-30F6FFFE0FD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D95885E-3D3E-41C7-BCB5-60294B0AB1EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Inputs/MODARI award data - GHS (GAMRIF and UKVN).xlsx
+++ b/Inputs/MODARI award data - GHS (GAMRIF and UKVN).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wellcomecloud-my.sharepoint.com/personal/e_clegg_ukcds_org_uk/Documents/My Documents/GitHub/ODA_research_and_innovation/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clegge\OneDrive - Wellcome Cloud\My Documents\GitHub\ODA_research_and_innovation\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{E4CC7446-E93A-46D5-86D9-2234D76FE536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F070C54-00FB-4B0F-8A2C-00D5A8055DA6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A598FB5-1D8A-4CF7-B4DE-380E7F56F0C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry sheet" sheetId="3" r:id="rId1"/>
@@ -319,9 +319,6 @@
     <t>Department of Health and Social Care</t>
   </si>
   <si>
-    <t>Global Health Security - GAMRIF</t>
-  </si>
-  <si>
     <t>GB-GOV-10-GAMRIF-WP1-UK-CHINA</t>
   </si>
   <si>
@@ -1403,9 +1400,6 @@
     <t>UK; Australia</t>
   </si>
   <si>
-    <t>Global Health Security - UK Vaccine Network</t>
-  </si>
-  <si>
     <t>GB-GOV-10-UKVN-VD-IUK</t>
   </si>
   <si>
@@ -2340,6 +2334,12 @@
   </si>
   <si>
     <t>GB-GOV-10-GAMRIF-WP5-FIND</t>
+  </si>
+  <si>
+    <t>DHSC - Global Health Security - GAMRIF</t>
+  </si>
+  <si>
+    <t>DHSC - Global Health Security - UK Vaccine Network</t>
   </si>
 </sst>
 </file>
@@ -2843,32 +2843,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X988"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" customWidth="1"/>
-    <col min="3" max="3" width="29.69921875" customWidth="1"/>
-    <col min="4" max="4" width="37.09765625" customWidth="1"/>
-    <col min="5" max="5" width="24.69921875" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="37.125" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="20" customWidth="1"/>
-    <col min="7" max="8" width="23.09765625" customWidth="1"/>
-    <col min="9" max="9" width="21.69921875" customWidth="1"/>
-    <col min="10" max="10" width="12.59765625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="11.69921875" style="23" customWidth="1"/>
-    <col min="12" max="12" width="11.69921875" customWidth="1"/>
+    <col min="7" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="21.75" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="23" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
     <col min="13" max="13" width="23.5" style="13" customWidth="1"/>
-    <col min="14" max="14" width="20.19921875" customWidth="1"/>
+    <col min="14" max="14" width="20.25" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="24.09765625" customWidth="1"/>
-    <col min="17" max="17" width="29.09765625" customWidth="1"/>
-    <col min="18" max="18" width="29.19921875" customWidth="1"/>
+    <col min="16" max="16" width="24.125" customWidth="1"/>
+    <col min="17" max="17" width="29.125" customWidth="1"/>
+    <col min="18" max="18" width="29.25" customWidth="1"/>
     <col min="19" max="19" width="22.5" customWidth="1"/>
-    <col min="20" max="20" width="40.69921875" customWidth="1"/>
-    <col min="21" max="24" width="8.59765625" customWidth="1"/>
+    <col min="20" max="20" width="40.75" customWidth="1"/>
+    <col min="21" max="24" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="40.5" customHeight="1">
@@ -2945,22 +2943,22 @@
         <v>60</v>
       </c>
       <c r="C2" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="22">
@@ -2970,29 +2968,29 @@
         <v>44834</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M2" s="37">
         <v>726472</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1">
@@ -3003,22 +3001,22 @@
         <v>60</v>
       </c>
       <c r="C3" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="22">
@@ -3028,29 +3026,29 @@
         <v>44834</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M3" s="37">
         <v>749854</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="R3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.25" customHeight="1">
@@ -3061,22 +3059,22 @@
         <v>60</v>
       </c>
       <c r="C4" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="22">
@@ -3086,29 +3084,29 @@
         <v>44834</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M4" s="37">
         <v>742085</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="R4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.25" customHeight="1">
@@ -3119,22 +3117,22 @@
         <v>60</v>
       </c>
       <c r="C5" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F5" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="24" t="s">
         <v>87</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>88</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="22">
@@ -3144,29 +3142,29 @@
         <v>44834</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M5" s="37">
         <v>748508</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="R5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="17.25" customHeight="1">
@@ -3177,22 +3175,22 @@
         <v>60</v>
       </c>
       <c r="C6" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F6" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>94</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="22">
@@ -3202,29 +3200,29 @@
         <v>44834</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6" s="37">
         <v>697784</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="R6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="17.25" customHeight="1">
@@ -3235,22 +3233,22 @@
         <v>60</v>
       </c>
       <c r="C7" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F7" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="22">
@@ -3260,29 +3258,29 @@
         <v>44834</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M7" s="37">
         <v>743206</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="R7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="17.25" customHeight="1">
@@ -3293,22 +3291,22 @@
         <v>60</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F8" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>106</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="22">
@@ -3318,29 +3316,29 @@
         <v>44834</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M8" s="37">
         <v>642659</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="R8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17.25" customHeight="1">
@@ -3351,22 +3349,22 @@
         <v>60</v>
       </c>
       <c r="C9" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F9" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="22">
@@ -3376,29 +3374,29 @@
         <v>44834</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M9" s="37">
         <v>670407</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="R9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="17.25" customHeight="1">
@@ -3409,22 +3407,22 @@
         <v>60</v>
       </c>
       <c r="C10" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F10" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="25" t="s">
         <v>117</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>118</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="22">
@@ -3434,29 +3432,29 @@
         <v>44834</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M10" s="37">
         <v>689171</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="P10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="R10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="17.25" customHeight="1">
@@ -3467,22 +3465,22 @@
         <v>60</v>
       </c>
       <c r="C11" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F11" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="24" t="s">
         <v>123</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>124</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="22">
@@ -3492,29 +3490,29 @@
         <v>44834</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M11" s="37">
         <v>489339</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="R11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="17.25" customHeight="1">
@@ -3525,22 +3523,22 @@
         <v>60</v>
       </c>
       <c r="C12" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F12" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="25" t="s">
         <v>129</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>130</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="22">
@@ -3550,29 +3548,29 @@
         <v>44834</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M12" s="37">
         <v>642075</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="R12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="17.25" customHeight="1">
@@ -3583,22 +3581,22 @@
         <v>60</v>
       </c>
       <c r="C13" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F13" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="25" t="s">
         <v>135</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>136</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="22">
@@ -3608,29 +3606,29 @@
         <v>44925</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M13" s="37">
         <v>726000</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="R13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="17.25" customHeight="1">
@@ -3641,22 +3639,22 @@
         <v>60</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F14" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="25" t="s">
         <v>141</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>142</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="22">
@@ -3666,29 +3664,29 @@
         <v>44834</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M14" s="37">
         <v>749599</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="R14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17.25" customHeight="1">
@@ -3699,22 +3697,22 @@
         <v>60</v>
       </c>
       <c r="C15" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F15" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>148</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="22">
@@ -3724,29 +3722,29 @@
         <v>44834</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M15" s="37">
         <v>740692</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="R15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="17.25" customHeight="1">
@@ -3757,22 +3755,22 @@
         <v>60</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="G16" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="27" t="s">
         <v>155</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>156</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="22">
@@ -3785,16 +3783,16 @@
       <c r="M16" s="37"/>
       <c r="N16" s="2"/>
       <c r="O16" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="17.25" customHeight="1">
@@ -3805,22 +3803,22 @@
         <v>60</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F17" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="27" t="s">
         <v>161</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>162</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="22">
@@ -3830,23 +3828,23 @@
         <v>43862</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M17" s="37">
         <v>400494</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="17.25" customHeight="1">
@@ -3857,22 +3855,22 @@
         <v>60</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F18" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="27" t="s">
         <v>166</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>167</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="22">
@@ -3882,23 +3880,23 @@
         <v>44104</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M18" s="37">
         <v>1498699</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="17.25" customHeight="1">
@@ -3909,22 +3907,22 @@
         <v>60</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F19" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="27" t="s">
         <v>171</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>172</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="22">
@@ -3934,23 +3932,23 @@
         <v>44286</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M19" s="37">
         <v>695785</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="17.25" customHeight="1">
@@ -3961,22 +3959,22 @@
         <v>60</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F20" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="30" t="s">
         <v>175</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>176</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="22">
@@ -3986,23 +3984,23 @@
         <v>44408</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M20" s="37">
         <v>1969092</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="P20" s="31" t="s">
         <v>177</v>
-      </c>
-      <c r="P20" s="31" t="s">
-        <v>178</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="17.25" customHeight="1">
@@ -4013,22 +4011,22 @@
         <v>60</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F21" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="24" t="s">
         <v>180</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>181</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="22">
@@ -4038,23 +4036,23 @@
         <v>44043</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M21" s="37">
         <v>1760549</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="17.25" customHeight="1">
@@ -4065,22 +4063,22 @@
         <v>60</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="G22" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="25" t="s">
         <v>186</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>187</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="22">
@@ -4090,29 +4088,29 @@
         <v>44895</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M22" s="37">
         <v>983584</v>
       </c>
       <c r="N22" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O22" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="O22" s="29" t="s">
+      <c r="P22" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="17.25" customHeight="1">
@@ -4123,22 +4121,22 @@
         <v>60</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F23" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="24" t="s">
         <v>196</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>197</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="22">
@@ -4148,29 +4146,29 @@
         <v>44926</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M23" s="37">
         <v>1191453</v>
       </c>
       <c r="N23" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O23" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="O23" s="27" t="s">
+      <c r="P23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q23" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="P23" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="17.25" customHeight="1">
@@ -4181,22 +4179,22 @@
         <v>60</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F24" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="25" t="s">
         <v>204</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>205</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="22">
@@ -4206,29 +4204,29 @@
         <v>44887</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M24" s="37">
         <v>1840348</v>
       </c>
       <c r="N24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="O24" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="R24" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="17.25" customHeight="1">
@@ -4239,22 +4237,22 @@
         <v>60</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F25" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="25" t="s">
         <v>210</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>211</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="22">
@@ -4264,29 +4262,29 @@
         <v>44711</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M25" s="37">
         <v>1765235</v>
       </c>
       <c r="N25" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="P25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="17.25" customHeight="1">
@@ -4297,22 +4295,22 @@
         <v>60</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F26" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="22">
@@ -4322,29 +4320,29 @@
         <v>44926</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M26" s="37">
         <v>1876518</v>
       </c>
       <c r="N26" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="Q26" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="R26" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="17.25" customHeight="1">
@@ -4355,22 +4353,22 @@
         <v>60</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F27" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>227</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="22">
@@ -4380,27 +4378,27 @@
         <v>44835</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M27" s="37">
         <v>1135440</v>
       </c>
       <c r="N27" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="O27" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="R27" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="17.25" customHeight="1">
@@ -4411,22 +4409,22 @@
         <v>60</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F28" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="25" t="s">
         <v>234</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>235</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="22">
@@ -4436,29 +4434,29 @@
         <v>44895</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M28" s="37">
         <v>908323</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O28" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q28" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="P28" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="R28" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="17.25" customHeight="1">
@@ -4469,22 +4467,22 @@
         <v>60</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F29" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="25" t="s">
         <v>240</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>241</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="22">
@@ -4494,29 +4492,29 @@
         <v>44926</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M29" s="37">
         <v>1380610</v>
       </c>
       <c r="N29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="P29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="P29" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q29" s="2" t="s">
+      <c r="R29" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="17.25" customHeight="1">
@@ -4527,22 +4525,22 @@
         <v>60</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F30" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="25" t="s">
         <v>248</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>249</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="22">
@@ -4552,29 +4550,29 @@
         <v>44895</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M30" s="37">
         <v>878832</v>
       </c>
       <c r="N30" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="P30" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q30" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="R30" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="17.25" customHeight="1">
@@ -4585,22 +4583,22 @@
         <v>60</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F31" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="25" t="s">
         <v>255</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>256</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="22">
@@ -4610,29 +4608,29 @@
         <v>44895</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M31" s="37">
         <v>864587</v>
       </c>
       <c r="N31" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="P31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q31" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q31" s="2" t="s">
+      <c r="R31" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="17.25" customHeight="1">
@@ -4643,22 +4641,22 @@
         <v>60</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="F32" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="25" t="s">
         <v>263</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>264</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="22">
@@ -4668,29 +4666,29 @@
         <v>44926</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M32" s="37">
         <v>806526</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O32" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q32" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="P32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="R32" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="17.25" customHeight="1">
@@ -4701,22 +4699,22 @@
         <v>60</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F33" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="G33" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="22">
@@ -4726,19 +4724,19 @@
         <v>44408</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M33" s="37">
         <v>5120528</v>
       </c>
       <c r="N33" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="O33" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="O33" s="27" t="s">
-        <v>273</v>
-      </c>
       <c r="P33" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -4753,22 +4751,22 @@
         <v>60</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F34" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="22">
@@ -4778,19 +4776,19 @@
         <v>44408</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M34" s="37">
         <v>4999705</v>
       </c>
       <c r="N34" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="O34" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="O34" s="27" t="s">
-        <v>273</v>
-      </c>
       <c r="P34" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -4805,22 +4803,22 @@
         <v>60</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E35" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="F35" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="G35" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="34" t="s">
         <v>280</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>281</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="22">
@@ -4830,19 +4828,19 @@
         <v>43555</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M35" s="37">
         <v>1000000</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P35" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -4857,22 +4855,22 @@
         <v>60</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E36" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="E36" s="27" t="s">
-        <v>278</v>
-      </c>
       <c r="F36" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H36" s="34" t="s">
         <v>280</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>281</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="22">
@@ -4882,19 +4880,19 @@
         <v>44641</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M36" s="37">
         <v>5000000</v>
       </c>
       <c r="N36" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O36" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P36" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -4909,22 +4907,22 @@
         <v>60</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E37" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="E37" s="27" t="s">
-        <v>278</v>
-      </c>
       <c r="F37" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="22">
@@ -4934,19 +4932,19 @@
         <v>44286</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M37" s="37">
         <v>1000000</v>
       </c>
       <c r="N37" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O37" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P37" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -4961,22 +4959,22 @@
         <v>60</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="G38" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="H38" s="25" t="s">
         <v>289</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>290</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="22">
@@ -4986,29 +4984,29 @@
         <v>43889</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M38" s="37">
         <v>83986</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O38" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q38" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="R38" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="17.25" customHeight="1">
@@ -5019,22 +5017,22 @@
         <v>60</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F39" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="25" t="s">
         <v>294</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>295</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="22">
@@ -5044,29 +5042,29 @@
         <v>43860</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M39" s="37">
         <v>48217</v>
       </c>
       <c r="N39" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="17.25" customHeight="1">
@@ -5077,22 +5075,22 @@
         <v>60</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F40" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="25" t="s">
         <v>298</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>299</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="22">
@@ -5102,29 +5100,29 @@
         <v>43769</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M40" s="37">
         <v>50000</v>
       </c>
       <c r="N40" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O40" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q40" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="P40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q40" s="2" t="s">
+      <c r="R40" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="17.25" customHeight="1">
@@ -5135,22 +5133,22 @@
         <v>60</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F41" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H41" s="25" t="s">
         <v>303</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>304</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="22">
@@ -5160,29 +5158,29 @@
         <v>43769</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M41" s="37">
         <v>50000</v>
       </c>
       <c r="N41" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O41" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q41" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="P41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q41" s="29" t="s">
+      <c r="R41" s="33" t="s">
         <v>306</v>
-      </c>
-      <c r="R41" s="33" t="s">
-        <v>307</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="17.25" customHeight="1">
@@ -5193,22 +5191,22 @@
         <v>60</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F42" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="25" t="s">
         <v>309</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>310</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="22">
@@ -5218,29 +5216,29 @@
         <v>43769</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M42" s="37">
         <v>49064</v>
       </c>
       <c r="N42" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O42" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q42" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="P42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q42" s="2" t="s">
+      <c r="R42" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="17.25" customHeight="1">
@@ -5251,22 +5249,22 @@
         <v>60</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F43" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="25" t="s">
         <v>315</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>316</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="22">
@@ -5276,29 +5274,29 @@
         <v>43982</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M43" s="37">
         <v>49850</v>
       </c>
       <c r="N43" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="O43" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="P43" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q43" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="P43" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="R43" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="17.25" customHeight="1">
@@ -5309,22 +5307,22 @@
         <v>60</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F44" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="25" t="s">
         <v>321</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>322</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="22">
@@ -5334,29 +5332,29 @@
         <v>43889</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M44" s="37">
         <v>79997</v>
       </c>
       <c r="N44" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="P44" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="Q44" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="Q44" s="29" t="s">
+      <c r="R44" s="33" t="s">
         <v>326</v>
-      </c>
-      <c r="R44" s="33" t="s">
-        <v>327</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="17.25" customHeight="1">
@@ -5367,22 +5365,22 @@
         <v>60</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F45" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="25" t="s">
         <v>329</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>330</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="22">
@@ -5392,29 +5390,29 @@
         <v>44104</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M45" s="37">
         <v>64864</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O45" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q45" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="P45" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q45" s="2" t="s">
+      <c r="R45" s="36" t="s">
         <v>332</v>
-      </c>
-      <c r="R45" s="36" t="s">
-        <v>333</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="17.25" customHeight="1">
@@ -5425,22 +5423,22 @@
         <v>60</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F46" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="25" t="s">
         <v>335</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>336</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="22">
@@ -5450,29 +5448,29 @@
         <v>43921</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M46" s="37">
         <v>49074</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O46" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q46" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="P46" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q46" s="29" t="s">
+      <c r="R46" s="33" t="s">
         <v>338</v>
-      </c>
-      <c r="R46" s="33" t="s">
-        <v>339</v>
       </c>
       <c r="S46" s="2"/>
       <c r="T46" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="17.25" customHeight="1">
@@ -5483,22 +5481,22 @@
         <v>60</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F47" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="25" t="s">
         <v>341</v>
-      </c>
-      <c r="H47" s="25" t="s">
-        <v>342</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="22">
@@ -5508,29 +5506,29 @@
         <v>44165</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M47" s="37">
         <v>37317</v>
       </c>
       <c r="N47" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="P47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="R47" s="33" t="s">
         <v>344</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="R47" s="33" t="s">
-        <v>345</v>
       </c>
       <c r="S47" s="2"/>
       <c r="T47" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="17.25" customHeight="1">
@@ -5541,22 +5539,22 @@
         <v>60</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F48" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="25" t="s">
         <v>347</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>348</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="22">
@@ -5566,29 +5564,29 @@
         <v>44196</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M48" s="37">
         <v>50000</v>
       </c>
       <c r="N48" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O48" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q48" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="P48" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q48" s="2" t="s">
+      <c r="R48" s="33" t="s">
         <v>350</v>
-      </c>
-      <c r="R48" s="33" t="s">
-        <v>351</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="17.25" customHeight="1">
@@ -5599,22 +5597,22 @@
         <v>60</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F49" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="25" t="s">
         <v>353</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>354</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="22">
@@ -5624,27 +5622,27 @@
         <v>44104</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M49" s="37">
         <v>46380</v>
       </c>
       <c r="N49" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="P49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q49" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="R49" s="33"/>
       <c r="S49" s="2"/>
       <c r="T49" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="17.25" customHeight="1">
@@ -5655,22 +5653,22 @@
         <v>60</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F50" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="25" t="s">
         <v>359</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>360</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="22">
@@ -5680,29 +5678,29 @@
         <v>44074</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M50" s="37">
         <v>62876</v>
       </c>
       <c r="N50" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O50" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="R50" s="33" t="s">
         <v>361</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="R50" s="33" t="s">
-        <v>362</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="17.25" customHeight="1">
@@ -5713,22 +5711,22 @@
         <v>60</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F51" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="25" t="s">
         <v>364</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>365</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="22">
@@ -5738,29 +5736,29 @@
         <v>44104</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M51" s="37">
         <v>35242</v>
       </c>
       <c r="N51" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="O51" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="P51" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="Q51" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="R51" s="33" t="s">
         <v>369</v>
-      </c>
-      <c r="R51" s="33" t="s">
-        <v>370</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="17.25" customHeight="1">
@@ -5771,22 +5769,22 @@
         <v>60</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F52" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="25" t="s">
         <v>372</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>373</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="22">
@@ -5796,29 +5794,29 @@
         <v>43921</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M52" s="37">
         <v>48686</v>
       </c>
       <c r="N52" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q52" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="R52" s="33" t="s">
         <v>350</v>
-      </c>
-      <c r="R52" s="33" t="s">
-        <v>351</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="17.25" customHeight="1">
@@ -5829,22 +5827,22 @@
         <v>60</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F53" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="25" t="s">
         <v>375</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>376</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="22">
@@ -5854,29 +5852,29 @@
         <v>43921</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M53" s="37">
         <v>46605</v>
       </c>
       <c r="N53" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="O53" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="O53" s="2" t="s">
+      <c r="P53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q53" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="P53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="R53" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S53" s="2"/>
       <c r="T53" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="17.25" customHeight="1">
@@ -5887,22 +5885,22 @@
         <v>60</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>61</v>
+        <v>681</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="F54" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="25" t="s">
         <v>381</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>382</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="22">
@@ -5912,29 +5910,29 @@
         <v>43982</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M54" s="37">
         <v>61262</v>
       </c>
       <c r="N54" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O54" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="R54" s="33" t="s">
         <v>383</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="R54" s="33" t="s">
-        <v>384</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="17.25" customHeight="1">
@@ -5945,22 +5943,22 @@
         <v>60</v>
       </c>
       <c r="C55" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55" s="19" t="s">
+      <c r="H55" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="22">
@@ -5970,25 +5968,25 @@
         <v>43008</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M55" s="37">
         <v>498870</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="41" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="17.25" customHeight="1">
@@ -5999,22 +5997,22 @@
         <v>60</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F56" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="22">
@@ -6024,23 +6022,23 @@
         <v>43008</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M56" s="37">
         <v>654717</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="41" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="17.25" customHeight="1">
@@ -6051,22 +6049,22 @@
         <v>60</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F57" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="22">
@@ -6076,23 +6074,23 @@
         <v>42978</v>
       </c>
       <c r="L57" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M57" s="37">
         <v>522800</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="41" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="17.25" customHeight="1">
@@ -6103,22 +6101,22 @@
         <v>60</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F58" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="22">
@@ -6128,23 +6126,23 @@
         <v>42978</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M58" s="37">
         <v>214270</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="41" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="17.25" customHeight="1">
@@ -6155,22 +6153,22 @@
         <v>60</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F59" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="22">
@@ -6180,25 +6178,25 @@
         <v>43008</v>
       </c>
       <c r="L59" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M59" s="37">
         <v>156181</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="41" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="17.25" customHeight="1">
@@ -6209,22 +6207,22 @@
         <v>60</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F60" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="22">
@@ -6234,25 +6232,25 @@
         <v>42978</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M60" s="37">
         <v>486701</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="41" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="17.25" customHeight="1">
@@ -6263,22 +6261,22 @@
         <v>60</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F61" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="22">
@@ -6288,23 +6286,23 @@
         <v>43008</v>
       </c>
       <c r="L61" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M61" s="37">
         <v>394407</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="41" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="17.25" customHeight="1">
@@ -6315,22 +6313,22 @@
         <v>60</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F62" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="22">
@@ -6340,25 +6338,25 @@
         <v>43008</v>
       </c>
       <c r="L62" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M62" s="37">
         <v>593928</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="41" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="17.25" customHeight="1">
@@ -6369,22 +6367,22 @@
         <v>60</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F63" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="22">
@@ -6394,23 +6392,23 @@
         <v>42978</v>
       </c>
       <c r="L63" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M63" s="37">
         <v>500000</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="41" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="17.25" customHeight="1">
@@ -6421,22 +6419,22 @@
         <v>60</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F64" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="22">
@@ -6446,23 +6444,23 @@
         <v>42978</v>
       </c>
       <c r="L64" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M64" s="37">
         <v>428646</v>
       </c>
       <c r="N64" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O64" s="39" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="P64" s="39"/>
       <c r="Q64" s="39"/>
       <c r="R64" s="39"/>
       <c r="S64" s="2"/>
       <c r="T64" s="41" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="17.25" customHeight="1">
@@ -6473,22 +6471,22 @@
         <v>60</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F65" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="22">
@@ -6498,25 +6496,25 @@
         <v>43039</v>
       </c>
       <c r="L65" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M65" s="37">
         <v>498379</v>
       </c>
       <c r="N65" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O65" s="39" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P65" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q65" s="39"/>
       <c r="R65" s="39"/>
       <c r="S65" s="2"/>
       <c r="T65" s="41" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="17.25" customHeight="1">
@@ -6527,22 +6525,22 @@
         <v>60</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F66" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="22">
@@ -6552,23 +6550,23 @@
         <v>42978</v>
       </c>
       <c r="L66" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M66" s="37">
         <v>217428</v>
       </c>
       <c r="N66" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O66" s="39" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P66" s="39"/>
       <c r="Q66" s="39"/>
       <c r="R66" s="39"/>
       <c r="S66" s="2"/>
       <c r="T66" s="41" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="17.25" customHeight="1">
@@ -6579,22 +6577,22 @@
         <v>60</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F67" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="22">
@@ -6604,23 +6602,23 @@
         <v>42978</v>
       </c>
       <c r="L67" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M67" s="37">
         <v>495000</v>
       </c>
       <c r="N67" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O67" s="39" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P67" s="39"/>
       <c r="Q67" s="39"/>
       <c r="R67" s="39"/>
       <c r="S67" s="2"/>
       <c r="T67" s="41" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="17.25" customHeight="1">
@@ -6631,22 +6629,22 @@
         <v>60</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F68" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="22">
@@ -6656,25 +6654,25 @@
         <v>43008</v>
       </c>
       <c r="L68" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M68" s="37">
         <v>359777</v>
       </c>
       <c r="N68" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O68" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P68" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q68" s="39"/>
       <c r="R68" s="39"/>
       <c r="S68" s="2"/>
       <c r="T68" s="41" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="17.25" customHeight="1">
@@ -6685,22 +6683,22 @@
         <v>60</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F69" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="22">
@@ -6710,27 +6708,27 @@
         <v>43008</v>
       </c>
       <c r="L69" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M69" s="37">
         <v>394427</v>
       </c>
       <c r="N69" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O69" s="39" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P69" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q69" s="39"/>
       <c r="R69" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69" s="41" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="17.25" customHeight="1">
@@ -6741,22 +6739,22 @@
         <v>60</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F70" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="22">
@@ -6766,23 +6764,23 @@
         <v>43159</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M70" s="37">
         <v>999180</v>
       </c>
       <c r="N70" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O70" s="39" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P70" s="39"/>
       <c r="Q70" s="39"/>
       <c r="R70" s="39"/>
       <c r="S70" s="2"/>
       <c r="T70" s="41" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="17.25" customHeight="1">
@@ -6793,22 +6791,22 @@
         <v>60</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F71" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H71" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="22">
@@ -6818,23 +6816,23 @@
         <v>43830</v>
       </c>
       <c r="L71" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M71" s="37">
         <v>1035557</v>
       </c>
       <c r="N71" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O71" s="39" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P71" s="39"/>
       <c r="Q71" s="39"/>
       <c r="R71" s="39"/>
       <c r="S71" s="2"/>
       <c r="T71" s="41" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="17.25" customHeight="1">
@@ -6845,22 +6843,22 @@
         <v>60</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F72" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="22">
@@ -6870,25 +6868,25 @@
         <v>43830</v>
       </c>
       <c r="L72" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M72" s="37">
         <v>976757</v>
       </c>
       <c r="N72" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O72" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P72" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q72" s="39"/>
       <c r="R72" s="39"/>
       <c r="S72" s="2"/>
       <c r="T72" s="41" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="17.25" customHeight="1">
@@ -6899,22 +6897,22 @@
         <v>60</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F73" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="22">
@@ -6924,25 +6922,25 @@
         <v>44650</v>
       </c>
       <c r="L73" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M73" s="37">
         <v>1106708</v>
       </c>
       <c r="N73" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O73" s="39" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q73" s="39"/>
       <c r="R73" s="39"/>
       <c r="S73" s="2"/>
       <c r="T73" s="41" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="17.25" customHeight="1">
@@ -6953,22 +6951,22 @@
         <v>60</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F74" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="22">
@@ -6978,25 +6976,25 @@
         <v>43008</v>
       </c>
       <c r="L74" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M74" s="37">
         <v>488611</v>
       </c>
       <c r="N74" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O74" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P74" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q74" s="39"/>
       <c r="R74" s="39"/>
       <c r="S74" s="2"/>
       <c r="T74" s="41" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="17.25" customHeight="1">
@@ -7007,22 +7005,22 @@
         <v>60</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H75" s="39" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="22">
@@ -7032,23 +7030,23 @@
         <v>44377</v>
       </c>
       <c r="L75" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M75" s="37">
         <v>2443209</v>
       </c>
       <c r="N75" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O75" s="39" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="P75" s="39"/>
       <c r="Q75" s="39"/>
       <c r="R75" s="39"/>
       <c r="S75" s="2"/>
       <c r="T75" s="41" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="17.25" customHeight="1">
@@ -7059,22 +7057,22 @@
         <v>60</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F76" s="42" t="s">
+        <v>483</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="22">
@@ -7084,23 +7082,23 @@
         <v>44408</v>
       </c>
       <c r="L76" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M76" s="37">
         <v>217428</v>
       </c>
       <c r="N76" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O76" s="39" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="P76" s="39"/>
       <c r="Q76" s="39"/>
       <c r="R76" s="39"/>
       <c r="S76" s="2"/>
       <c r="T76" s="41" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="17.25" customHeight="1">
@@ -7111,22 +7109,22 @@
         <v>60</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D77" s="39" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E77" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F77" s="42" t="s">
+        <v>487</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H77" s="39" t="s">
         <v>489</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H77" s="39" t="s">
-        <v>491</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="22">
@@ -7136,23 +7134,23 @@
         <v>44286</v>
       </c>
       <c r="L77" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M77" s="37">
         <v>2000000</v>
       </c>
       <c r="N77" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O77" s="39" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P77" s="39"/>
       <c r="Q77" s="39"/>
       <c r="R77" s="39"/>
       <c r="S77" s="2"/>
       <c r="T77" s="41" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="17.25" customHeight="1">
@@ -7163,22 +7161,22 @@
         <v>60</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E78" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F78" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H78" s="39" t="s">
         <v>493</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="H78" s="39" t="s">
-        <v>495</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="22">
@@ -7188,23 +7186,23 @@
         <v>44651</v>
       </c>
       <c r="L78" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M78" s="37">
         <v>1994035</v>
       </c>
       <c r="N78" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O78" s="39" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="P78" s="39"/>
       <c r="Q78" s="39"/>
       <c r="R78" s="39"/>
       <c r="S78" s="2"/>
       <c r="T78" s="41" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="17.25" customHeight="1">
@@ -7215,19 +7213,19 @@
         <v>60</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D79" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="E79" s="39" t="s">
+        <v>496</v>
+      </c>
+      <c r="F79" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="G79" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="F79" s="42" t="s">
-        <v>499</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="2"/>
@@ -7236,23 +7234,23 @@
         <v>44286</v>
       </c>
       <c r="L79" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M79" s="37">
         <v>2000332.16</v>
       </c>
       <c r="N79" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O79" s="39" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="P79" s="39"/>
       <c r="Q79" s="39"/>
       <c r="R79" s="39"/>
       <c r="S79" s="2"/>
       <c r="T79" s="41" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="17.25" customHeight="1">
@@ -7263,19 +7261,19 @@
         <v>60</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D80" s="39" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E80" s="39" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F80" s="42" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="2"/>
@@ -7284,23 +7282,23 @@
         <v>44561</v>
       </c>
       <c r="L80" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M80" s="37">
         <v>1870492</v>
       </c>
       <c r="N80" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O80" s="39" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="P80" s="39"/>
       <c r="Q80" s="39"/>
       <c r="R80" s="39"/>
       <c r="S80" s="2"/>
       <c r="T80" s="41" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="17.25" customHeight="1">
@@ -7311,19 +7309,19 @@
         <v>60</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D81" s="39" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E81" s="39" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F81" s="42" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="2"/>
@@ -7332,23 +7330,23 @@
         <v>44651</v>
       </c>
       <c r="L81" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M81" s="37">
         <v>2394460</v>
       </c>
       <c r="N81" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O81" s="39" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="P81" s="39"/>
       <c r="Q81" s="39"/>
       <c r="R81" s="39"/>
       <c r="S81" s="2"/>
       <c r="T81" s="41" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="17.25" customHeight="1">
@@ -7359,19 +7357,19 @@
         <v>60</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D82" s="39" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E82" s="39" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F82" s="42" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="2"/>
@@ -7380,23 +7378,23 @@
         <v>44255</v>
       </c>
       <c r="L82" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M82" s="37">
         <v>2468495</v>
       </c>
       <c r="N82" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O82" s="39" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="P82" s="39"/>
       <c r="Q82" s="39"/>
       <c r="R82" s="39"/>
       <c r="S82" s="2"/>
       <c r="T82" s="41" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="17.25" customHeight="1">
@@ -7407,19 +7405,19 @@
         <v>60</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D83" s="39" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E83" s="39" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F83" s="42" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="2"/>
@@ -7428,23 +7426,23 @@
         <v>44255</v>
       </c>
       <c r="L83" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M83" s="37">
         <v>3309330</v>
       </c>
       <c r="N83" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O83" s="39" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P83" s="39"/>
       <c r="Q83" s="39"/>
       <c r="R83" s="39"/>
       <c r="S83" s="2"/>
       <c r="T83" s="41" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="17.25" customHeight="1">
@@ -7455,42 +7453,42 @@
         <v>60</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D84" s="39" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="2"/>
       <c r="J84" s="22"/>
       <c r="K84" s="22"/>
       <c r="L84" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M84" s="37">
         <v>1591073</v>
       </c>
       <c r="N84" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O84" s="39" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="P84" s="39"/>
       <c r="Q84" s="39"/>
       <c r="R84" s="39"/>
       <c r="S84" s="2"/>
       <c r="T84" s="41" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="17.25" customHeight="1">
@@ -7501,22 +7499,22 @@
         <v>60</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D85" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="E85" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F85" s="42" t="s">
+        <v>517</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E85" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="F85" s="42" t="s">
+      <c r="H85" s="39" t="s">
         <v>519</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="H85" s="39" t="s">
-        <v>521</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="22">
@@ -7526,29 +7524,29 @@
         <v>43190</v>
       </c>
       <c r="L85" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M85" s="37">
         <v>492527</v>
       </c>
       <c r="N85" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O85" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P85" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q85" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R85" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S85" s="2"/>
       <c r="T85" s="41" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="17.25" customHeight="1">
@@ -7559,22 +7557,22 @@
         <v>60</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D86" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F86" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="H86" s="39" t="s">
         <v>523</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="H86" s="39" t="s">
-        <v>525</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="22">
@@ -7584,29 +7582,29 @@
         <v>43220</v>
       </c>
       <c r="L86" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M86" s="37">
         <v>452324</v>
       </c>
       <c r="N86" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O86" s="39" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q86" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R86" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S86" s="2"/>
       <c r="T86" s="41" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="17.25" customHeight="1">
@@ -7617,22 +7615,22 @@
         <v>60</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D87" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E87" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F87" s="42" t="s">
+        <v>525</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="H87" s="39" t="s">
         <v>527</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="H87" s="39" t="s">
-        <v>529</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="22">
@@ -7642,23 +7640,23 @@
         <v>43190</v>
       </c>
       <c r="L87" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M87" s="37">
         <v>500000</v>
       </c>
       <c r="N87" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O87" s="39" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P87" s="39"/>
       <c r="Q87" s="39"/>
       <c r="R87" s="39"/>
       <c r="S87" s="2"/>
       <c r="T87" s="41" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="17.25" customHeight="1">
@@ -7669,22 +7667,22 @@
         <v>60</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D88" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E88" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F88" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="H88" s="39" t="s">
         <v>531</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="H88" s="39" t="s">
-        <v>533</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="22">
@@ -7694,25 +7692,25 @@
         <v>43251</v>
       </c>
       <c r="L88" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M88" s="37">
         <v>483455</v>
       </c>
       <c r="N88" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="39" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q88" s="39"/>
       <c r="R88" s="39"/>
       <c r="S88" s="2"/>
       <c r="T88" s="41" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="17.25" customHeight="1">
@@ -7723,22 +7721,22 @@
         <v>60</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D89" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F89" s="42" t="s">
+        <v>533</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="H89" s="39" t="s">
         <v>535</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="H89" s="39" t="s">
-        <v>537</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="22">
@@ -7748,25 +7746,25 @@
         <v>43251</v>
       </c>
       <c r="L89" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M89" s="37">
         <v>695639</v>
       </c>
       <c r="N89" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O89" s="39" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P89" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q89" s="39"/>
       <c r="R89" s="39"/>
       <c r="S89" s="2"/>
       <c r="T89" s="41" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="17.25" customHeight="1">
@@ -7777,22 +7775,22 @@
         <v>60</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D90" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E90" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F90" s="42" t="s">
+        <v>537</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="H90" s="39" t="s">
         <v>539</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="H90" s="39" t="s">
-        <v>541</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="22">
@@ -7802,23 +7800,23 @@
         <v>43190</v>
       </c>
       <c r="L90" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M90" s="37">
         <v>499825</v>
       </c>
       <c r="N90" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O90" s="39" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="P90" s="39"/>
       <c r="Q90" s="39"/>
       <c r="R90" s="39"/>
       <c r="S90" s="2"/>
       <c r="T90" s="41" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="17.25" customHeight="1">
@@ -7829,22 +7827,22 @@
         <v>60</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D91" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E91" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F91" s="42" t="s">
+        <v>542</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="H91" s="39" t="s">
         <v>544</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="H91" s="39" t="s">
-        <v>546</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="22">
@@ -7854,23 +7852,23 @@
         <v>43190</v>
       </c>
       <c r="L91" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M91" s="37">
         <v>490375</v>
       </c>
       <c r="N91" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O91" s="39" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="P91" s="39"/>
       <c r="Q91" s="39"/>
       <c r="R91" s="39"/>
       <c r="S91" s="2"/>
       <c r="T91" s="41" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="17.25" customHeight="1">
@@ -7881,22 +7879,22 @@
         <v>60</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D92" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E92" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F92" s="42" t="s">
+        <v>547</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H92" s="39" t="s">
         <v>549</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="H92" s="39" t="s">
-        <v>551</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="22">
@@ -7906,25 +7904,25 @@
         <v>43220</v>
       </c>
       <c r="L92" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M92" s="37">
         <v>408589</v>
       </c>
       <c r="N92" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O92" s="39" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q92" s="39"/>
       <c r="R92" s="39"/>
       <c r="S92" s="2"/>
       <c r="T92" s="41" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="17.25" customHeight="1">
@@ -7935,22 +7933,22 @@
         <v>60</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D93" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E93" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F93" s="42" t="s">
+        <v>551</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="H93" s="39" t="s">
         <v>553</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="H93" s="39" t="s">
-        <v>555</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="22">
@@ -7960,25 +7958,25 @@
         <v>43220</v>
       </c>
       <c r="L93" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M93" s="37">
         <v>469049</v>
       </c>
       <c r="N93" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O93" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P93" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q93" s="39"/>
       <c r="R93" s="39"/>
       <c r="S93" s="2"/>
       <c r="T93" s="41" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="17.25" customHeight="1">
@@ -7989,22 +7987,22 @@
         <v>60</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D94" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E94" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F94" s="42" t="s">
+        <v>555</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="H94" s="39" t="s">
         <v>557</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="H94" s="39" t="s">
-        <v>559</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="22">
@@ -8014,29 +8012,29 @@
         <v>43190</v>
       </c>
       <c r="L94" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M94" s="37">
         <v>327239</v>
       </c>
       <c r="N94" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O94" s="39" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="P94" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q94" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R94" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S94" s="2"/>
       <c r="T94" s="41" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="17.25" customHeight="1">
@@ -8047,22 +8045,22 @@
         <v>60</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D95" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E95" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F95" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="H95" s="39" t="s">
         <v>562</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="H95" s="39" t="s">
-        <v>564</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="22">
@@ -8072,25 +8070,25 @@
         <v>43220</v>
       </c>
       <c r="L95" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M95" s="37">
         <v>208500</v>
       </c>
       <c r="N95" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O95" s="39" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="P95" s="39"/>
       <c r="Q95" s="39"/>
       <c r="R95" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S95" s="2"/>
       <c r="T95" s="41" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="17.25" customHeight="1">
@@ -8101,22 +8099,22 @@
         <v>60</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D96" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E96" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F96" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="H96" s="39" t="s">
         <v>567</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="H96" s="39" t="s">
-        <v>569</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="22">
@@ -8126,25 +8124,25 @@
         <v>43220</v>
       </c>
       <c r="L96" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M96" s="37">
         <v>499000</v>
       </c>
       <c r="N96" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O96" s="39" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="P96" s="39"/>
       <c r="Q96" s="39"/>
       <c r="R96" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S96" s="2"/>
       <c r="T96" s="41" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="17.25" customHeight="1">
@@ -8155,22 +8153,22 @@
         <v>60</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D97" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E97" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F97" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="H97" s="39" t="s">
         <v>572</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="H97" s="39" t="s">
-        <v>574</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="22">
@@ -8180,29 +8178,29 @@
         <v>43190</v>
       </c>
       <c r="L97" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M97" s="37">
         <v>350780</v>
       </c>
       <c r="N97" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O97" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P97" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q97" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R97" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S97" s="2"/>
       <c r="T97" s="41" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="17.25" customHeight="1">
@@ -8213,22 +8211,22 @@
         <v>60</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D98" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E98" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F98" s="42" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H98" s="39" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="22">
@@ -8238,25 +8236,25 @@
         <v>43190</v>
       </c>
       <c r="L98" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M98" s="37">
         <v>394466</v>
       </c>
       <c r="N98" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O98" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P98" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q98" s="39"/>
       <c r="R98" s="39"/>
       <c r="S98" s="2"/>
       <c r="T98" s="41" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="17.25" customHeight="1">
@@ -8267,22 +8265,22 @@
         <v>60</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D99" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E99" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F99" s="42" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H99" s="39" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="22">
@@ -8292,25 +8290,25 @@
         <v>43220</v>
       </c>
       <c r="L99" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M99" s="37">
         <v>476102</v>
       </c>
       <c r="N99" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O99" s="39" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q99" s="39"/>
       <c r="R99" s="39"/>
       <c r="S99" s="2"/>
       <c r="T99" s="41" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="17.25" customHeight="1">
@@ -8321,22 +8319,22 @@
         <v>60</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D100" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E100" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F100" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H100" s="39" t="s">
         <v>582</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="H100" s="39" t="s">
-        <v>584</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="22">
@@ -8346,29 +8344,29 @@
         <v>43312</v>
       </c>
       <c r="L100" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M100" s="37">
         <v>499155</v>
       </c>
       <c r="N100" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O100" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P100" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q100" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R100" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S100" s="2"/>
       <c r="T100" s="41" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="17.25" customHeight="1">
@@ -8379,22 +8377,22 @@
         <v>60</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D101" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E101" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F101" s="42" t="s">
+        <v>584</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H101" s="39" t="s">
         <v>586</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="H101" s="39" t="s">
-        <v>588</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="22">
@@ -8404,23 +8402,23 @@
         <v>43220</v>
       </c>
       <c r="L101" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M101" s="37">
         <v>271373</v>
       </c>
       <c r="N101" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O101" s="39" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="P101" s="39"/>
       <c r="Q101" s="39"/>
       <c r="R101" s="39"/>
       <c r="S101" s="2"/>
       <c r="T101" s="41" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="17.25" customHeight="1">
@@ -8431,22 +8429,22 @@
         <v>60</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D102" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F102" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="H102" s="39" t="s">
         <v>591</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="H102" s="39" t="s">
-        <v>593</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="22">
@@ -8456,23 +8454,23 @@
         <v>43220</v>
       </c>
       <c r="L102" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M102" s="37">
         <v>448950</v>
       </c>
       <c r="N102" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O102" s="39" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="P102" s="39"/>
       <c r="Q102" s="39"/>
       <c r="R102" s="39"/>
       <c r="S102" s="2"/>
       <c r="T102" s="41" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="17.25" customHeight="1">
@@ -8483,22 +8481,22 @@
         <v>60</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D103" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E103" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F103" s="42" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H103" s="39" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="22">
@@ -8508,25 +8506,25 @@
         <v>43220</v>
       </c>
       <c r="L103" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M103" s="37">
         <v>499798</v>
       </c>
       <c r="N103" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O103" s="39" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="P103" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q103" s="39"/>
       <c r="R103" s="39"/>
       <c r="S103" s="2"/>
       <c r="T103" s="41" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="17.25" customHeight="1">
@@ -8537,22 +8535,22 @@
         <v>60</v>
       </c>
       <c r="C104" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D104" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E104" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F104" s="42" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H104" s="39" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="22">
@@ -8562,23 +8560,23 @@
         <v>43220</v>
       </c>
       <c r="L104" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M104" s="37">
         <v>499995</v>
       </c>
       <c r="N104" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O104" s="39" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="P104" s="39"/>
       <c r="Q104" s="39"/>
       <c r="R104" s="39"/>
       <c r="S104" s="2"/>
       <c r="T104" s="41" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="17.25" customHeight="1">
@@ -8589,22 +8587,22 @@
         <v>60</v>
       </c>
       <c r="C105" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D105" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E105" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F105" s="42" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H105" s="39" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="22">
@@ -8614,25 +8612,25 @@
         <v>43251</v>
       </c>
       <c r="L105" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M105" s="37">
         <v>382974</v>
       </c>
       <c r="N105" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O105" s="39" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="P105" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q105" s="39"/>
       <c r="R105" s="39"/>
       <c r="S105" s="2"/>
       <c r="T105" s="41" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="17.25" customHeight="1">
@@ -8643,22 +8641,22 @@
         <v>60</v>
       </c>
       <c r="C106" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D106" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E106" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F106" s="42" t="s">
+        <v>606</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="H106" s="39" t="s">
         <v>608</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="H106" s="39" t="s">
-        <v>610</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="22">
@@ -8668,25 +8666,25 @@
         <v>43220</v>
       </c>
       <c r="L106" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M106" s="37">
         <v>271764</v>
       </c>
       <c r="N106" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O106" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P106" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q106" s="39"/>
       <c r="R106" s="39"/>
       <c r="S106" s="2"/>
       <c r="T106" s="41" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="17.25" customHeight="1">
@@ -8697,22 +8695,22 @@
         <v>60</v>
       </c>
       <c r="C107" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D107" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E107" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F107" s="42" t="s">
+        <v>610</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="H107" s="39" t="s">
         <v>612</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="H107" s="39" t="s">
-        <v>614</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="22">
@@ -8722,23 +8720,23 @@
         <v>44651</v>
       </c>
       <c r="L107" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M107" s="37">
         <v>1999053</v>
       </c>
       <c r="N107" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O107" s="39" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="P107" s="39"/>
       <c r="Q107" s="39"/>
       <c r="R107" s="39"/>
       <c r="S107" s="2"/>
       <c r="T107" s="41" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="17.25" customHeight="1">
@@ -8749,22 +8747,22 @@
         <v>60</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D108" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E108" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F108" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="H108" s="39" t="s">
         <v>617</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="H108" s="39" t="s">
-        <v>619</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="22">
@@ -8774,25 +8772,25 @@
         <v>44561</v>
       </c>
       <c r="L108" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M108" s="37">
         <v>1999524</v>
       </c>
       <c r="N108" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O108" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P108" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q108" s="39"/>
       <c r="R108" s="39"/>
       <c r="S108" s="2"/>
       <c r="T108" s="41" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="17.25" customHeight="1">
@@ -8803,22 +8801,22 @@
         <v>60</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D109" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E109" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F109" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="H109" s="39" t="s">
         <v>621</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="H109" s="39" t="s">
-        <v>623</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="22">
@@ -8828,25 +8826,25 @@
         <v>44651</v>
       </c>
       <c r="L109" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M109" s="37">
         <v>2414777</v>
       </c>
       <c r="N109" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O109" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P109" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q109" s="39"/>
       <c r="R109" s="39"/>
       <c r="S109" s="2"/>
       <c r="T109" s="41" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="110" spans="1:20" ht="17.25" customHeight="1">
@@ -8857,22 +8855,22 @@
         <v>60</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D110" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E110" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F110" s="42" t="s">
+        <v>623</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="H110" s="39" t="s">
         <v>625</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="H110" s="39" t="s">
-        <v>627</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="22">
@@ -8882,25 +8880,25 @@
         <v>44561</v>
       </c>
       <c r="L110" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M110" s="37">
         <v>1999926</v>
       </c>
       <c r="N110" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O110" s="39" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="P110" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q110" s="39"/>
       <c r="R110" s="39"/>
       <c r="S110" s="2"/>
       <c r="T110" s="41" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="17.25" customHeight="1">
@@ -8911,22 +8909,22 @@
         <v>60</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D111" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="E111" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F111" s="42" t="s">
+        <v>627</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E111" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="F111" s="42" t="s">
-        <v>629</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>520</v>
-      </c>
       <c r="H111" s="39" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="22">
@@ -8936,25 +8934,25 @@
         <v>44561</v>
       </c>
       <c r="L111" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M111" s="37">
         <v>1999712</v>
       </c>
       <c r="N111" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O111" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P111" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q111" s="39"/>
       <c r="R111" s="39"/>
       <c r="S111" s="2"/>
       <c r="T111" s="41" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="17.25" customHeight="1">
@@ -8965,22 +8963,22 @@
         <v>60</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D112" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E112" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F112" s="42" t="s">
+        <v>630</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="H112" s="39" t="s">
         <v>632</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="H112" s="39" t="s">
-        <v>634</v>
       </c>
       <c r="I112" s="2"/>
       <c r="J112" s="22">
@@ -8990,25 +8988,25 @@
         <v>44651</v>
       </c>
       <c r="L112" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M112" s="37">
         <v>2000000</v>
       </c>
       <c r="N112" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O112" s="39" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q112" s="39"/>
       <c r="R112" s="39"/>
       <c r="S112" s="2"/>
       <c r="T112" s="41" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="113" spans="1:20" ht="17.25" customHeight="1">
@@ -9019,22 +9017,22 @@
         <v>60</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D113" s="39" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E113" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F113" s="42" t="s">
+        <v>634</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="H113" s="39" t="s">
         <v>636</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="H113" s="39" t="s">
-        <v>638</v>
       </c>
       <c r="I113" s="2"/>
       <c r="J113" s="22">
@@ -9044,25 +9042,25 @@
         <v>44651</v>
       </c>
       <c r="L113" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M113" s="37">
         <v>1162475</v>
       </c>
       <c r="N113" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O113" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P113" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q113" s="39"/>
       <c r="R113" s="39"/>
       <c r="S113" s="2"/>
       <c r="T113" s="41" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="114" spans="1:20" ht="17.25" customHeight="1">
@@ -9073,22 +9071,22 @@
         <v>60</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D114" s="39" t="s">
+        <v>638</v>
+      </c>
+      <c r="E114" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="F114" s="42" t="s">
+        <v>639</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="E114" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="F114" s="42" t="s">
+      <c r="H114" s="39" t="s">
         <v>641</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="H114" s="39" t="s">
-        <v>643</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="22">
@@ -9098,23 +9096,23 @@
         <v>44196</v>
       </c>
       <c r="L114" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M114" s="37">
         <v>3000000</v>
       </c>
       <c r="N114" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O114" s="39" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P114" s="39"/>
       <c r="Q114" s="39"/>
       <c r="R114" s="39"/>
       <c r="S114" s="2"/>
       <c r="T114" s="41" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="115" spans="1:20" ht="17.25" customHeight="1">
@@ -9125,22 +9123,22 @@
         <v>60</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D115" s="39" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E115" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F115" s="42" t="s">
+        <v>643</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="H115" s="39" t="s">
         <v>645</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="H115" s="39" t="s">
-        <v>647</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="22">
@@ -9150,25 +9148,25 @@
         <v>44561</v>
       </c>
       <c r="L115" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M115" s="37">
         <v>1218548</v>
       </c>
       <c r="N115" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O115" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P115" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q115" s="39"/>
       <c r="R115" s="39"/>
       <c r="S115" s="2"/>
       <c r="T115" s="41" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="116" spans="1:20" ht="17.25" customHeight="1">
@@ -9179,22 +9177,22 @@
         <v>60</v>
       </c>
       <c r="C116" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D116" s="39" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E116" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F116" s="42" t="s">
+        <v>647</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="H116" s="39" t="s">
         <v>649</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="H116" s="39" t="s">
-        <v>651</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="22">
@@ -9204,25 +9202,25 @@
         <v>44651</v>
       </c>
       <c r="L116" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M116" s="37">
         <v>4716257</v>
       </c>
       <c r="N116" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O116" s="39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P116" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q116" s="39"/>
       <c r="R116" s="39"/>
       <c r="S116" s="2"/>
       <c r="T116" s="41" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="117" spans="1:20" ht="17.25" customHeight="1">
@@ -9233,22 +9231,22 @@
         <v>60</v>
       </c>
       <c r="C117" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D117" s="39" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E117" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F117" s="42" t="s">
+        <v>651</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="H117" s="39" t="s">
         <v>653</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="H117" s="39" t="s">
-        <v>655</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="22">
@@ -9258,25 +9256,25 @@
         <v>44561</v>
       </c>
       <c r="L117" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M117" s="37">
         <v>2359553</v>
       </c>
       <c r="N117" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O117" s="39" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="P117" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q117" s="39"/>
       <c r="R117" s="39"/>
       <c r="S117" s="2"/>
       <c r="T117" s="41" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="118" spans="1:20" ht="17.25" customHeight="1">
@@ -9287,22 +9285,22 @@
         <v>60</v>
       </c>
       <c r="C118" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D118" s="39" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E118" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F118" s="42" t="s">
+        <v>656</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="H118" s="39" t="s">
         <v>658</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="H118" s="39" t="s">
-        <v>660</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="22">
@@ -9312,23 +9310,23 @@
         <v>44651</v>
       </c>
       <c r="L118" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M118" s="37">
         <v>3600000</v>
       </c>
       <c r="N118" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O118" s="39" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="P118" s="39"/>
       <c r="Q118" s="39"/>
       <c r="R118" s="39"/>
       <c r="S118" s="2"/>
       <c r="T118" s="41" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="119" spans="1:20" ht="17.25" customHeight="1">
@@ -9339,22 +9337,22 @@
         <v>60</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D119" s="39" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E119" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F119" s="42" t="s">
+        <v>661</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="H119" s="39" t="s">
         <v>663</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="H119" s="39" t="s">
-        <v>665</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="22">
@@ -9364,25 +9362,25 @@
         <v>44651</v>
       </c>
       <c r="L119" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M119" s="37">
         <v>3463675</v>
       </c>
       <c r="N119" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O119" s="39" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P119" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q119" s="39"/>
       <c r="R119" s="39"/>
       <c r="S119" s="2"/>
       <c r="T119" s="41" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="120" spans="1:20" ht="17.25" customHeight="1">
@@ -9393,22 +9391,22 @@
         <v>60</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D120" s="39" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E120" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F120" s="42" t="s">
+        <v>665</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="H120" s="39" t="s">
         <v>667</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="H120" s="39" t="s">
-        <v>669</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="22">
@@ -9418,25 +9416,25 @@
         <v>44651</v>
       </c>
       <c r="L120" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M120" s="37">
         <v>3093436</v>
       </c>
       <c r="N120" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O120" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P120" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q120" s="39"/>
       <c r="R120" s="39"/>
       <c r="S120" s="2"/>
       <c r="T120" s="41" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="121" spans="1:20" ht="17.25" customHeight="1">
@@ -9447,19 +9445,19 @@
         <v>60</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D121" s="39" t="s">
+        <v>669</v>
+      </c>
+      <c r="E121" s="39" t="s">
+        <v>496</v>
+      </c>
+      <c r="F121" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="E121" s="39" t="s">
-        <v>498</v>
-      </c>
-      <c r="F121" s="42" t="s">
-        <v>672</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="H121" s="39"/>
       <c r="I121" s="2"/>
@@ -9468,25 +9466,25 @@
         <v>44651</v>
       </c>
       <c r="L121" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M121" s="37">
         <v>624500</v>
       </c>
       <c r="N121" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O121" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P121" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q121" s="39"/>
       <c r="R121" s="39"/>
       <c r="S121" s="2"/>
       <c r="T121" s="41" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="122" spans="1:20" ht="17.25" customHeight="1">
@@ -9497,19 +9495,19 @@
         <v>60</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D122" s="39" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E122" s="39" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F122" s="42" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H122" s="39"/>
       <c r="I122" s="2"/>
@@ -9518,25 +9516,25 @@
         <v>44651</v>
       </c>
       <c r="L122" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M122" s="37">
         <v>1027819</v>
       </c>
       <c r="N122" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O122" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P122" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q122" s="39"/>
       <c r="R122" s="39"/>
       <c r="S122" s="2"/>
       <c r="T122" s="41" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="123" spans="1:20" ht="17.25" customHeight="1">
@@ -9547,19 +9545,19 @@
         <v>60</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D123" s="39" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E123" s="39" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F123" s="42" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H123" s="39"/>
       <c r="I123" s="2"/>
@@ -9568,25 +9566,25 @@
         <v>44651</v>
       </c>
       <c r="L123" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M123" s="37">
         <v>744463</v>
       </c>
       <c r="N123" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O123" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P123" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q123" s="39"/>
       <c r="R123" s="39"/>
       <c r="S123" s="2"/>
       <c r="T123" s="41" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="124" spans="1:20" ht="17.25" customHeight="1">
@@ -9597,19 +9595,19 @@
         <v>60</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D124" s="39" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E124" s="39" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F124" s="42" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H124" s="39"/>
       <c r="I124" s="2"/>
@@ -9618,25 +9616,25 @@
         <v>44651</v>
       </c>
       <c r="L124" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M124" s="37">
         <v>662083</v>
       </c>
       <c r="N124" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O124" s="39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P124" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q124" s="39"/>
       <c r="R124" s="39"/>
       <c r="S124" s="2"/>
       <c r="T124" s="41" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="125" spans="1:20" ht="17.25" customHeight="1">
@@ -9647,19 +9645,19 @@
         <v>60</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>385</v>
+        <v>682</v>
       </c>
       <c r="D125" s="39" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E125" s="39" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F125" s="42" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H125" s="39"/>
       <c r="I125" s="2"/>
@@ -9668,25 +9666,25 @@
         <v>44651</v>
       </c>
       <c r="L125" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M125" s="37">
         <v>1500000</v>
       </c>
       <c r="N125" s="39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O125" s="39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P125" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q125" s="39"/>
       <c r="R125" s="39"/>
       <c r="S125" s="2"/>
       <c r="T125" s="41" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="126" spans="1:20" ht="13.5" customHeight="1">
@@ -27904,15 +27902,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="39.19921875" customWidth="1"/>
-    <col min="3" max="3" width="119.69921875" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
+    <col min="3" max="3" width="119.75" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" customWidth="1"/>
-    <col min="6" max="6" width="24.69921875" customWidth="1"/>
-    <col min="7" max="26" width="8.59765625" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="7" max="26" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" customHeight="1">
@@ -29195,21 +29193,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29453,19 +29451,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D95885E-3D3E-41C7-BCB5-60294B0AB1EE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C49041-F246-4B03-A83A-30F6FFFE0FD8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3C49041-F246-4B03-A83A-30F6FFFE0FD8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D95885E-3D3E-41C7-BCB5-60294B0AB1EE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
